--- a/trunk/admin/old/lånekalkyler.xlsx
+++ b/trunk/admin/old/lånekalkyler.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="96" yWindow="36" windowWidth="8364" windowHeight="1296"/>
@@ -63,9 +63,6 @@
     <t>Lån</t>
   </si>
   <si>
-    <t>Preem</t>
-  </si>
-  <si>
     <t>Mat</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
     <t>Autogiro</t>
   </si>
   <si>
-    <t>Bil övr</t>
-  </si>
-  <si>
     <t>ComHem</t>
   </si>
   <si>
@@ -91,6 +85,12 @@
   </si>
   <si>
     <t>In</t>
+  </si>
+  <si>
+    <t>Kvar:</t>
+  </si>
+  <si>
+    <t>Efter lån</t>
   </si>
 </sst>
 </file>
@@ -158,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -168,6 +168,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,7 +466,7 @@
   <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -479,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>240000</v>
+        <v>170000</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
@@ -499,7 +500,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>2</v>
@@ -509,7 +510,7 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1">
         <f>C4*12</f>
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -557,2531 +558,2531 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3">
-        <v>40603</v>
+        <v>41214</v>
       </c>
       <c r="B2" s="5">
         <f>Inställningar!C2</f>
-        <v>240000</v>
+        <v>170000</v>
       </c>
       <c r="C2" s="5">
         <f>Inställningar!$C$2/Inställningar!$C$5</f>
-        <v>2000</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D2" s="5">
         <f>B2*Inställningar!$C$3/12</f>
-        <v>1018</v>
+        <v>721.08333333333337</v>
       </c>
       <c r="E2" s="5">
         <f>SUM(C2:D2)</f>
-        <v>3018</v>
+        <v>3554.416666666667</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3">
-        <v>40634</v>
+        <v>41244</v>
       </c>
       <c r="B3" s="5">
         <f>B2-C2</f>
-        <v>238000</v>
+        <v>167166.66666666666</v>
       </c>
       <c r="C3" s="5">
         <f>IF(B3&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D3" s="5">
         <f>B3*Inställningar!$C$3/12</f>
-        <v>1009.5166666666668</v>
+        <v>709.06527777777774</v>
       </c>
       <c r="E3" s="5">
-        <f t="shared" ref="E3:E66" si="0">SUM(C3:D3)</f>
-        <v>3009.5166666666669</v>
+        <f t="shared" ref="E3" si="0">SUM(C3:D3)</f>
+        <v>3542.3986111111112</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3">
-        <v>40664</v>
+        <v>41275</v>
       </c>
       <c r="B4" s="5">
         <f t="shared" ref="B4:B67" si="1">B3-C3</f>
-        <v>236000</v>
+        <v>164333.33333333331</v>
       </c>
       <c r="C4" s="5">
         <f>IF(B4&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D4" s="5">
         <f>B4*Inställningar!$C$3/12</f>
-        <v>1001.0333333333333</v>
+        <v>697.0472222222221</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ref="E4:E67" si="2">SUM(C4:D4)</f>
-        <v>3001.0333333333333</v>
+        <v>3530.3805555555555</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3">
-        <v>40695</v>
+        <v>41306</v>
       </c>
       <c r="B5" s="5">
         <f t="shared" si="1"/>
-        <v>234000</v>
+        <v>161499.99999999997</v>
       </c>
       <c r="C5" s="5">
         <f>IF(B5&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D5" s="5">
         <f>B5*Inställningar!$C$3/12</f>
-        <v>992.55000000000007</v>
+        <v>685.02916666666658</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" si="2"/>
-        <v>2992.55</v>
+        <v>3518.3625000000002</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3">
-        <v>40725</v>
+        <v>41334</v>
       </c>
       <c r="B6" s="5">
         <f t="shared" si="1"/>
-        <v>232000</v>
+        <v>158666.66666666663</v>
       </c>
       <c r="C6" s="5">
         <f>IF(B6&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D6" s="5">
         <f>B6*Inställningar!$C$3/12</f>
-        <v>984.06666666666672</v>
+        <v>673.01111111111095</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" si="2"/>
-        <v>2984.0666666666666</v>
+        <v>3506.3444444444444</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3">
-        <v>40756</v>
+        <v>41365</v>
       </c>
       <c r="B7" s="5">
         <f t="shared" si="1"/>
-        <v>230000</v>
+        <v>155833.33333333328</v>
       </c>
       <c r="C7" s="5">
         <f>IF(B7&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D7" s="5">
         <f>B7*Inställningar!$C$3/12</f>
-        <v>975.58333333333337</v>
+        <v>660.99305555555532</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" si="2"/>
-        <v>2975.5833333333335</v>
+        <v>3494.3263888888887</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3">
-        <v>40787</v>
+        <v>41395</v>
       </c>
       <c r="B8" s="5">
         <f t="shared" si="1"/>
-        <v>228000</v>
+        <v>152999.99999999994</v>
       </c>
       <c r="C8" s="5">
         <f>IF(B8&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D8" s="5">
         <f>B8*Inställningar!$C$3/12</f>
-        <v>967.1</v>
+        <v>648.9749999999998</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="2"/>
-        <v>2967.1</v>
+        <v>3482.3083333333334</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3">
-        <v>40817</v>
+        <v>41426</v>
       </c>
       <c r="B9" s="5">
         <f t="shared" si="1"/>
-        <v>226000</v>
+        <v>150166.6666666666</v>
       </c>
       <c r="C9" s="5">
         <f>IF(B9&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D9" s="5">
         <f>B9*Inställningar!$C$3/12</f>
-        <v>958.61666666666667</v>
+        <v>636.95694444444416</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" si="2"/>
-        <v>2958.6166666666668</v>
+        <v>3470.2902777777776</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3">
-        <v>40848</v>
+        <v>41456</v>
       </c>
       <c r="B10" s="5">
         <f t="shared" si="1"/>
-        <v>224000</v>
+        <v>147333.33333333326</v>
       </c>
       <c r="C10" s="5">
         <f>IF(B10&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D10" s="5">
         <f>B10*Inställningar!$C$3/12</f>
-        <v>950.13333333333333</v>
+        <v>624.93888888888853</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" si="2"/>
-        <v>2950.1333333333332</v>
+        <v>3458.2722222222219</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3">
-        <v>40878</v>
+        <v>41487</v>
       </c>
       <c r="B11" s="5">
         <f t="shared" si="1"/>
-        <v>222000</v>
+        <v>144499.99999999991</v>
       </c>
       <c r="C11" s="5">
         <f>IF(B11&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D11" s="5">
         <f>B11*Inställningar!$C$3/12</f>
-        <v>941.65</v>
+        <v>612.92083333333301</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" si="2"/>
-        <v>2941.65</v>
+        <v>3446.2541666666666</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3">
-        <v>40909</v>
+        <v>41518</v>
       </c>
       <c r="B12" s="5">
         <f t="shared" si="1"/>
-        <v>220000</v>
+        <v>141666.66666666657</v>
       </c>
       <c r="C12" s="5">
         <f>IF(B12&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D12" s="5">
         <f>B12*Inställningar!$C$3/12</f>
-        <v>933.16666666666663</v>
+        <v>600.90277777777737</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" si="2"/>
-        <v>2933.1666666666665</v>
+        <v>3434.2361111111109</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3">
-        <v>40940</v>
+        <v>41548</v>
       </c>
       <c r="B13" s="5">
         <f t="shared" si="1"/>
-        <v>218000</v>
+        <v>138833.33333333323</v>
       </c>
       <c r="C13" s="5">
         <f>IF(B13&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D13" s="5">
         <f>B13*Inställningar!$C$3/12</f>
-        <v>924.68333333333339</v>
+        <v>588.88472222222174</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" si="2"/>
-        <v>2924.6833333333334</v>
+        <v>3422.2180555555551</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
-        <v>40969</v>
+        <v>41579</v>
       </c>
       <c r="B14" s="5">
         <f t="shared" si="1"/>
-        <v>216000</v>
+        <v>135999.99999999988</v>
       </c>
       <c r="C14" s="5">
         <f>IF(B14&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D14" s="5">
         <f>B14*Inställningar!$C$3/12</f>
-        <v>916.19999999999993</v>
+        <v>576.86666666666622</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" si="2"/>
-        <v>2916.2</v>
+        <v>3410.2</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
-        <v>41000</v>
+        <v>41609</v>
       </c>
       <c r="B15" s="5">
         <f t="shared" si="1"/>
-        <v>214000</v>
+        <v>133166.66666666654</v>
       </c>
       <c r="C15" s="5">
         <f>IF(B15&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D15" s="5">
         <f>B15*Inställningar!$C$3/12</f>
-        <v>907.7166666666667</v>
+        <v>564.84861111111059</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" si="2"/>
-        <v>2907.7166666666667</v>
+        <v>3398.1819444444441</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
-        <v>41030</v>
+        <v>41640</v>
       </c>
       <c r="B16" s="5">
         <f t="shared" si="1"/>
-        <v>212000</v>
+        <v>130333.33333333321</v>
       </c>
       <c r="C16" s="5">
         <f>IF(B16&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D16" s="5">
         <f>B16*Inställningar!$C$3/12</f>
-        <v>899.23333333333323</v>
+        <v>552.83055555555507</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" si="2"/>
-        <v>2899.2333333333331</v>
+        <v>3386.1638888888883</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
-        <v>41061</v>
+        <v>41671</v>
       </c>
       <c r="B17" s="5">
         <f t="shared" si="1"/>
-        <v>210000</v>
+        <v>127499.99999999988</v>
       </c>
       <c r="C17" s="5">
         <f>IF(B17&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D17" s="5">
         <f>B17*Inställningar!$C$3/12</f>
-        <v>890.75</v>
+        <v>540.81249999999955</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" si="2"/>
-        <v>2890.75</v>
+        <v>3374.145833333333</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
-        <v>41091</v>
+        <v>41699</v>
       </c>
       <c r="B18" s="5">
         <f t="shared" si="1"/>
-        <v>208000</v>
+        <v>124666.66666666656</v>
       </c>
       <c r="C18" s="5">
         <f>IF(B18&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D18" s="5">
         <f>B18*Inställningar!$C$3/12</f>
-        <v>882.26666666666677</v>
+        <v>528.79444444444391</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" si="2"/>
-        <v>2882.2666666666669</v>
+        <v>3362.1277777777773</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3">
-        <v>41122</v>
+        <v>41730</v>
       </c>
       <c r="B19" s="5">
         <f t="shared" si="1"/>
-        <v>206000</v>
+        <v>121833.33333333323</v>
       </c>
       <c r="C19" s="5">
         <f>IF(B19&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D19" s="5">
         <f>B19*Inställningar!$C$3/12</f>
-        <v>873.7833333333333</v>
+        <v>516.77638888888839</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" si="2"/>
-        <v>2873.7833333333333</v>
+        <v>3350.109722222222</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3">
-        <v>41153</v>
+        <v>41760</v>
       </c>
       <c r="B20" s="5">
         <f t="shared" si="1"/>
-        <v>204000</v>
+        <v>118999.9999999999</v>
       </c>
       <c r="C20" s="5">
         <f>IF(B20&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D20" s="5">
         <f>B20*Inställningar!$C$3/12</f>
-        <v>865.30000000000007</v>
+        <v>504.75833333333293</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" si="2"/>
-        <v>2865.3</v>
+        <v>3338.0916666666662</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3">
-        <v>41183</v>
+        <v>41791</v>
       </c>
       <c r="B21" s="5">
         <f t="shared" si="1"/>
-        <v>202000</v>
+        <v>116166.66666666657</v>
       </c>
       <c r="C21" s="5">
         <f>IF(B21&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D21" s="5">
         <f>B21*Inställningar!$C$3/12</f>
-        <v>856.81666666666661</v>
+        <v>492.74027777777741</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" si="2"/>
-        <v>2856.8166666666666</v>
+        <v>3326.0736111111109</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3">
-        <v>41214</v>
+        <v>41821</v>
       </c>
       <c r="B22" s="5">
         <f t="shared" si="1"/>
-        <v>200000</v>
+        <v>113333.33333333324</v>
       </c>
       <c r="C22" s="5">
         <f>IF(B22&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D22" s="5">
         <f>B22*Inställningar!$C$3/12</f>
-        <v>848.33333333333337</v>
+        <v>480.72222222222189</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" si="2"/>
-        <v>2848.3333333333335</v>
+        <v>3314.0555555555552</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3">
-        <v>41244</v>
+        <v>41852</v>
       </c>
       <c r="B23" s="5">
         <f t="shared" si="1"/>
-        <v>198000</v>
+        <v>110499.99999999991</v>
       </c>
       <c r="C23" s="5">
         <f>IF(B23&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D23" s="5">
         <f>B23*Inställningar!$C$3/12</f>
-        <v>839.85</v>
+        <v>468.70416666666625</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" si="2"/>
-        <v>2839.85</v>
+        <v>3302.0374999999999</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3">
-        <v>41275</v>
+        <v>41883</v>
       </c>
       <c r="B24" s="5">
         <f t="shared" si="1"/>
-        <v>196000</v>
+        <v>107666.66666666658</v>
       </c>
       <c r="C24" s="5">
         <f>IF(B24&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D24" s="5">
         <f>B24*Inställningar!$C$3/12</f>
-        <v>831.36666666666667</v>
+        <v>456.68611111111073</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" si="2"/>
-        <v>2831.3666666666668</v>
+        <v>3290.0194444444442</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3">
-        <v>41306</v>
+        <v>41913</v>
       </c>
       <c r="B25" s="5">
         <f t="shared" si="1"/>
-        <v>194000</v>
+        <v>104833.33333333326</v>
       </c>
       <c r="C25" s="5">
         <f>IF(B25&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D25" s="5">
         <f>B25*Inställningar!$C$3/12</f>
-        <v>822.88333333333333</v>
+        <v>444.66805555555521</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" si="2"/>
-        <v>2822.8833333333332</v>
+        <v>3278.0013888888889</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3">
-        <v>41334</v>
+        <v>41944</v>
       </c>
       <c r="B26" s="5">
         <f t="shared" si="1"/>
-        <v>192000</v>
+        <v>101999.99999999993</v>
       </c>
       <c r="C26" s="5">
         <f>IF(B26&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D26" s="5">
         <f>B26*Inställningar!$C$3/12</f>
-        <v>814.4</v>
+        <v>432.64999999999969</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" si="2"/>
-        <v>2814.4</v>
+        <v>3265.9833333333331</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3">
-        <v>41365</v>
+        <v>41974</v>
       </c>
       <c r="B27" s="5">
         <f t="shared" si="1"/>
-        <v>190000</v>
+        <v>99166.666666666599</v>
       </c>
       <c r="C27" s="5">
         <f>IF(B27&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D27" s="5">
         <f>B27*Inställningar!$C$3/12</f>
-        <v>805.91666666666663</v>
+        <v>420.63194444444417</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" si="2"/>
-        <v>2805.9166666666665</v>
+        <v>3253.9652777777778</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3">
-        <v>41395</v>
+        <v>42005</v>
       </c>
       <c r="B28" s="5">
         <f t="shared" si="1"/>
-        <v>188000</v>
+        <v>96333.33333333327</v>
       </c>
       <c r="C28" s="5">
         <f>IF(B28&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D28" s="5">
         <f>B28*Inställningar!$C$3/12</f>
-        <v>797.43333333333339</v>
+        <v>408.6138888888886</v>
       </c>
       <c r="E28" s="5">
         <f t="shared" si="2"/>
-        <v>2797.4333333333334</v>
+        <v>3241.9472222222221</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3">
-        <v>41426</v>
+        <v>42036</v>
       </c>
       <c r="B29" s="5">
         <f t="shared" si="1"/>
-        <v>186000</v>
+        <v>93499.999999999942</v>
       </c>
       <c r="C29" s="5">
         <f>IF(B29&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D29" s="5">
         <f>B29*Inställningar!$C$3/12</f>
-        <v>788.94999999999993</v>
+        <v>396.59583333333308</v>
       </c>
       <c r="E29" s="5">
         <f t="shared" si="2"/>
-        <v>2788.95</v>
+        <v>3229.9291666666668</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="3">
-        <v>41456</v>
+        <v>42064</v>
       </c>
       <c r="B30" s="5">
         <f t="shared" si="1"/>
-        <v>184000</v>
+        <v>90666.666666666613</v>
       </c>
       <c r="C30" s="5">
         <f>IF(B30&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D30" s="5">
         <f>B30*Inställningar!$C$3/12</f>
-        <v>780.4666666666667</v>
+        <v>384.57777777777756</v>
       </c>
       <c r="E30" s="5">
         <f t="shared" si="2"/>
-        <v>2780.4666666666667</v>
+        <v>3217.911111111111</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="3">
-        <v>41487</v>
+        <v>42095</v>
       </c>
       <c r="B31" s="5">
         <f t="shared" si="1"/>
-        <v>182000</v>
+        <v>87833.333333333285</v>
       </c>
       <c r="C31" s="5">
         <f>IF(B31&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D31" s="5">
         <f>B31*Inställningar!$C$3/12</f>
-        <v>771.98333333333323</v>
+        <v>372.55972222222204</v>
       </c>
       <c r="E31" s="5">
         <f t="shared" si="2"/>
-        <v>2771.9833333333331</v>
+        <v>3205.8930555555553</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="3">
-        <v>41518</v>
+        <v>42125</v>
       </c>
       <c r="B32" s="5">
         <f t="shared" si="1"/>
-        <v>180000</v>
+        <v>84999.999999999956</v>
       </c>
       <c r="C32" s="5">
         <f>IF(B32&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D32" s="5">
         <f>B32*Inställningar!$C$3/12</f>
-        <v>763.5</v>
+        <v>360.54166666666652</v>
       </c>
       <c r="E32" s="5">
         <f t="shared" si="2"/>
-        <v>2763.5</v>
+        <v>3193.875</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="3">
-        <v>41548</v>
+        <v>42156</v>
       </c>
       <c r="B33" s="5">
         <f t="shared" si="1"/>
-        <v>178000</v>
+        <v>82166.666666666628</v>
       </c>
       <c r="C33" s="5">
         <f>IF(B33&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D33" s="5">
         <f>B33*Inställningar!$C$3/12</f>
-        <v>755.01666666666677</v>
+        <v>348.52361111111094</v>
       </c>
       <c r="E33" s="5">
         <f t="shared" si="2"/>
-        <v>2755.0166666666669</v>
+        <v>3181.8569444444443</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="3">
-        <v>41579</v>
+        <v>42186</v>
       </c>
       <c r="B34" s="5">
         <f t="shared" si="1"/>
-        <v>176000</v>
+        <v>79333.333333333299</v>
       </c>
       <c r="C34" s="5">
         <f>IF(B34&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D34" s="5">
         <f>B34*Inställningar!$C$3/12</f>
-        <v>746.5333333333333</v>
+        <v>336.50555555555542</v>
       </c>
       <c r="E34" s="5">
         <f t="shared" si="2"/>
-        <v>2746.5333333333333</v>
+        <v>3169.838888888889</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="3">
-        <v>41609</v>
+        <v>42217</v>
       </c>
       <c r="B35" s="5">
         <f t="shared" si="1"/>
-        <v>174000</v>
+        <v>76499.999999999971</v>
       </c>
       <c r="C35" s="5">
         <f>IF(B35&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D35" s="5">
         <f>B35*Inställningar!$C$3/12</f>
-        <v>738.05000000000007</v>
+        <v>324.4874999999999</v>
       </c>
       <c r="E35" s="5">
         <f t="shared" si="2"/>
-        <v>2738.05</v>
+        <v>3157.8208333333332</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="3">
-        <v>41640</v>
+        <v>42248</v>
       </c>
       <c r="B36" s="5">
         <f t="shared" si="1"/>
-        <v>172000</v>
+        <v>73666.666666666642</v>
       </c>
       <c r="C36" s="5">
         <f>IF(B36&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D36" s="5">
         <f>B36*Inställningar!$C$3/12</f>
-        <v>729.56666666666661</v>
+        <v>312.46944444444438</v>
       </c>
       <c r="E36" s="5">
         <f t="shared" si="2"/>
-        <v>2729.5666666666666</v>
+        <v>3145.8027777777779</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="3">
-        <v>41671</v>
+        <v>42278</v>
       </c>
       <c r="B37" s="5">
         <f t="shared" si="1"/>
-        <v>170000</v>
+        <v>70833.333333333314</v>
       </c>
       <c r="C37" s="5">
         <f>IF(B37&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D37" s="5">
         <f>B37*Inställningar!$C$3/12</f>
-        <v>721.08333333333337</v>
+        <v>300.4513888888888</v>
       </c>
       <c r="E37" s="5">
         <f t="shared" si="2"/>
-        <v>2721.0833333333335</v>
+        <v>3133.7847222222222</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="3">
-        <v>41699</v>
+        <v>42309</v>
       </c>
       <c r="B38" s="5">
         <f t="shared" si="1"/>
-        <v>168000</v>
+        <v>67999.999999999985</v>
       </c>
       <c r="C38" s="5">
         <f>IF(B38&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D38" s="5">
         <f>B38*Inställningar!$C$3/12</f>
-        <v>712.6</v>
+        <v>288.43333333333328</v>
       </c>
       <c r="E38" s="5">
         <f t="shared" si="2"/>
-        <v>2712.6</v>
+        <v>3121.7666666666669</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="3">
-        <v>41730</v>
+        <v>42339</v>
       </c>
       <c r="B39" s="5">
         <f t="shared" si="1"/>
-        <v>166000</v>
+        <v>65166.66666666665</v>
       </c>
       <c r="C39" s="5">
         <f>IF(B39&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D39" s="5">
         <f>B39*Inställningar!$C$3/12</f>
-        <v>704.11666666666667</v>
+        <v>276.4152777777777</v>
       </c>
       <c r="E39" s="5">
         <f t="shared" si="2"/>
-        <v>2704.1166666666668</v>
+        <v>3109.7486111111111</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="3">
-        <v>41760</v>
+        <v>42370</v>
       </c>
       <c r="B40" s="5">
         <f t="shared" si="1"/>
-        <v>164000</v>
+        <v>62333.333333333314</v>
       </c>
       <c r="C40" s="5">
         <f>IF(B40&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D40" s="5">
         <f>B40*Inställningar!$C$3/12</f>
-        <v>695.63333333333333</v>
+        <v>264.39722222222213</v>
       </c>
       <c r="E40" s="5">
         <f t="shared" si="2"/>
-        <v>2695.6333333333332</v>
+        <v>3097.7305555555558</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="3">
-        <v>41791</v>
+        <v>42401</v>
       </c>
       <c r="B41" s="5">
         <f t="shared" si="1"/>
-        <v>162000</v>
+        <v>59499.999999999978</v>
       </c>
       <c r="C41" s="5">
         <f>IF(B41&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D41" s="5">
         <f>B41*Inställningar!$C$3/12</f>
-        <v>687.15</v>
+        <v>252.37916666666658</v>
       </c>
       <c r="E41" s="5">
         <f t="shared" si="2"/>
-        <v>2687.15</v>
+        <v>3085.7125000000001</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="3">
-        <v>41821</v>
+        <v>42430</v>
       </c>
       <c r="B42" s="5">
         <f t="shared" si="1"/>
-        <v>160000</v>
+        <v>56666.666666666642</v>
       </c>
       <c r="C42" s="5">
         <f>IF(B42&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D42" s="5">
         <f>B42*Inställningar!$C$3/12</f>
-        <v>678.66666666666663</v>
+        <v>240.361111111111</v>
       </c>
       <c r="E42" s="5">
         <f t="shared" si="2"/>
-        <v>2678.6666666666665</v>
+        <v>3073.6944444444443</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="3">
-        <v>41852</v>
+        <v>42461</v>
       </c>
       <c r="B43" s="5">
         <f t="shared" si="1"/>
-        <v>158000</v>
+        <v>53833.333333333307</v>
       </c>
       <c r="C43" s="5">
         <f>IF(B43&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D43" s="5">
         <f>B43*Inställningar!$C$3/12</f>
-        <v>670.18333333333328</v>
+        <v>228.34305555555545</v>
       </c>
       <c r="E43" s="5">
         <f t="shared" si="2"/>
-        <v>2670.1833333333334</v>
+        <v>3061.6763888888891</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="3">
-        <v>41883</v>
+        <v>42491</v>
       </c>
       <c r="B44" s="5">
         <f t="shared" si="1"/>
-        <v>156000</v>
+        <v>50999.999999999971</v>
       </c>
       <c r="C44" s="5">
         <f>IF(B44&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D44" s="5">
         <f>B44*Inställningar!$C$3/12</f>
-        <v>661.7</v>
+        <v>216.3249999999999</v>
       </c>
       <c r="E44" s="5">
         <f t="shared" si="2"/>
-        <v>2661.7</v>
+        <v>3049.6583333333333</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="3">
-        <v>41913</v>
+        <v>42522</v>
       </c>
       <c r="B45" s="5">
         <f t="shared" si="1"/>
-        <v>154000</v>
+        <v>48166.666666666635</v>
       </c>
       <c r="C45" s="5">
         <f>IF(B45&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D45" s="5">
         <f>B45*Inställningar!$C$3/12</f>
-        <v>653.2166666666667</v>
+        <v>204.3069444444443</v>
       </c>
       <c r="E45" s="5">
         <f t="shared" si="2"/>
-        <v>2653.2166666666667</v>
+        <v>3037.6402777777776</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="3">
-        <v>41944</v>
+        <v>42552</v>
       </c>
       <c r="B46" s="5">
         <f t="shared" si="1"/>
-        <v>152000</v>
+        <v>45333.333333333299</v>
       </c>
       <c r="C46" s="5">
         <f>IF(B46&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D46" s="5">
         <f>B46*Inställningar!$C$3/12</f>
-        <v>644.73333333333335</v>
+        <v>192.28888888888875</v>
       </c>
       <c r="E46" s="5">
         <f t="shared" si="2"/>
-        <v>2644.7333333333336</v>
+        <v>3025.6222222222223</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="3">
-        <v>41974</v>
+        <v>42583</v>
       </c>
       <c r="B47" s="5">
         <f t="shared" si="1"/>
-        <v>150000</v>
+        <v>42499.999999999964</v>
       </c>
       <c r="C47" s="5">
         <f>IF(B47&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D47" s="5">
         <f>B47*Inställningar!$C$3/12</f>
-        <v>636.25</v>
+        <v>180.27083333333317</v>
       </c>
       <c r="E47" s="5">
         <f t="shared" si="2"/>
-        <v>2636.25</v>
+        <v>3013.6041666666665</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="3">
-        <v>42005</v>
+        <v>42614</v>
       </c>
       <c r="B48" s="5">
         <f t="shared" si="1"/>
-        <v>148000</v>
+        <v>39666.666666666628</v>
       </c>
       <c r="C48" s="5">
         <f>IF(B48&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D48" s="5">
         <f>B48*Inställningar!$C$3/12</f>
-        <v>627.76666666666665</v>
+        <v>168.25277777777762</v>
       </c>
       <c r="E48" s="5">
         <f t="shared" si="2"/>
-        <v>2627.7666666666664</v>
+        <v>3001.5861111111112</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="3">
-        <v>42036</v>
+        <v>42644</v>
       </c>
       <c r="B49" s="5">
         <f t="shared" si="1"/>
-        <v>146000</v>
+        <v>36833.333333333292</v>
       </c>
       <c r="C49" s="5">
         <f>IF(B49&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D49" s="5">
         <f>B49*Inställningar!$C$3/12</f>
-        <v>619.28333333333342</v>
+        <v>156.23472222222205</v>
       </c>
       <c r="E49" s="5">
         <f t="shared" si="2"/>
-        <v>2619.2833333333333</v>
+        <v>2989.5680555555555</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="3">
-        <v>42064</v>
+        <v>42675</v>
       </c>
       <c r="B50" s="5">
         <f t="shared" si="1"/>
-        <v>144000</v>
+        <v>33999.999999999956</v>
       </c>
       <c r="C50" s="5">
         <f>IF(B50&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D50" s="5">
         <f>B50*Inställningar!$C$3/12</f>
-        <v>610.80000000000007</v>
+        <v>144.2166666666665</v>
       </c>
       <c r="E50" s="5">
         <f t="shared" si="2"/>
-        <v>2610.8000000000002</v>
+        <v>2977.55</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="3">
-        <v>42095</v>
+        <v>42705</v>
       </c>
       <c r="B51" s="5">
         <f t="shared" si="1"/>
-        <v>142000</v>
+        <v>31166.666666666624</v>
       </c>
       <c r="C51" s="5">
         <f>IF(B51&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D51" s="5">
         <f>B51*Inställningar!$C$3/12</f>
-        <v>602.31666666666672</v>
+        <v>132.19861111111092</v>
       </c>
       <c r="E51" s="5">
         <f t="shared" si="2"/>
-        <v>2602.3166666666666</v>
+        <v>2965.5319444444444</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="3">
-        <v>42125</v>
+        <v>42736</v>
       </c>
       <c r="B52" s="5">
         <f t="shared" si="1"/>
-        <v>140000</v>
+        <v>28333.333333333292</v>
       </c>
       <c r="C52" s="5">
         <f>IF(B52&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D52" s="5">
         <f>B52*Inställningar!$C$3/12</f>
-        <v>593.83333333333337</v>
+        <v>120.18055555555539</v>
       </c>
       <c r="E52" s="5">
         <f t="shared" si="2"/>
-        <v>2593.8333333333335</v>
+        <v>2953.5138888888887</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="3">
-        <v>42156</v>
+        <v>42767</v>
       </c>
       <c r="B53" s="5">
         <f t="shared" si="1"/>
-        <v>138000</v>
+        <v>25499.99999999996</v>
       </c>
       <c r="C53" s="5">
         <f>IF(B53&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D53" s="5">
         <f>B53*Inställningar!$C$3/12</f>
-        <v>585.35</v>
+        <v>108.16249999999984</v>
       </c>
       <c r="E53" s="5">
         <f t="shared" si="2"/>
-        <v>2585.35</v>
+        <v>2941.4958333333334</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="3">
-        <v>42186</v>
+        <v>42795</v>
       </c>
       <c r="B54" s="5">
         <f t="shared" si="1"/>
-        <v>136000</v>
+        <v>22666.666666666628</v>
       </c>
       <c r="C54" s="5">
         <f>IF(B54&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D54" s="5">
         <f>B54*Inställningar!$C$3/12</f>
-        <v>576.86666666666667</v>
+        <v>96.144444444444275</v>
       </c>
       <c r="E54" s="5">
         <f t="shared" si="2"/>
-        <v>2576.8666666666668</v>
+        <v>2929.4777777777776</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="3">
-        <v>42217</v>
+        <v>42826</v>
       </c>
       <c r="B55" s="5">
         <f t="shared" si="1"/>
-        <v>134000</v>
+        <v>19833.333333333296</v>
       </c>
       <c r="C55" s="5">
         <f>IF(B55&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D55" s="5">
         <f>B55*Inställningar!$C$3/12</f>
-        <v>568.38333333333333</v>
+        <v>84.126388888888727</v>
       </c>
       <c r="E55" s="5">
         <f t="shared" si="2"/>
-        <v>2568.3833333333332</v>
+        <v>2917.4597222222224</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="3">
-        <v>42248</v>
+        <v>42856</v>
       </c>
       <c r="B56" s="5">
         <f t="shared" si="1"/>
-        <v>132000</v>
+        <v>16999.999999999964</v>
       </c>
       <c r="C56" s="5">
         <f>IF(B56&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D56" s="5">
         <f>B56*Inställningar!$C$3/12</f>
-        <v>559.9</v>
+        <v>72.108333333333178</v>
       </c>
       <c r="E56" s="5">
         <f t="shared" si="2"/>
-        <v>2559.9</v>
+        <v>2905.4416666666666</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="3">
-        <v>42278</v>
+        <v>42887</v>
       </c>
       <c r="B57" s="5">
         <f t="shared" si="1"/>
-        <v>130000</v>
+        <v>14166.66666666663</v>
       </c>
       <c r="C57" s="5">
         <f>IF(B57&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D57" s="5">
         <f>B57*Inställningar!$C$3/12</f>
-        <v>551.41666666666663</v>
+        <v>60.090277777777622</v>
       </c>
       <c r="E57" s="5">
         <f t="shared" si="2"/>
-        <v>2551.4166666666665</v>
+        <v>2893.4236111111113</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="3">
-        <v>42309</v>
+        <v>42917</v>
       </c>
       <c r="B58" s="5">
         <f t="shared" si="1"/>
-        <v>128000</v>
+        <v>11333.333333333296</v>
       </c>
       <c r="C58" s="5">
         <f>IF(B58&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D58" s="5">
         <f>B58*Inställningar!$C$3/12</f>
-        <v>542.93333333333328</v>
+        <v>48.072222222222059</v>
       </c>
       <c r="E58" s="5">
         <f t="shared" si="2"/>
-        <v>2542.9333333333334</v>
+        <v>2881.4055555555556</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="3">
-        <v>42339</v>
+        <v>42948</v>
       </c>
       <c r="B59" s="5">
         <f t="shared" si="1"/>
-        <v>126000</v>
+        <v>8499.9999999999618</v>
       </c>
       <c r="C59" s="5">
         <f>IF(B59&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D59" s="5">
         <f>B59*Inställningar!$C$3/12</f>
-        <v>534.45000000000005</v>
+        <v>36.054166666666504</v>
       </c>
       <c r="E59" s="5">
         <f t="shared" si="2"/>
-        <v>2534.4499999999998</v>
+        <v>2869.3874999999998</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="3">
-        <v>42370</v>
+        <v>42979</v>
       </c>
       <c r="B60" s="5">
         <f t="shared" si="1"/>
-        <v>124000</v>
+        <v>5666.6666666666279</v>
       </c>
       <c r="C60" s="5">
         <f>IF(B60&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D60" s="5">
         <f>B60*Inställningar!$C$3/12</f>
-        <v>525.9666666666667</v>
+        <v>24.036111111110944</v>
       </c>
       <c r="E60" s="5">
         <f t="shared" si="2"/>
-        <v>2525.9666666666667</v>
+        <v>2857.3694444444445</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="3">
-        <v>42401</v>
+        <v>43009</v>
       </c>
       <c r="B61" s="5">
         <f t="shared" si="1"/>
-        <v>122000</v>
+        <v>2833.3333333332944</v>
       </c>
       <c r="C61" s="5">
         <f>IF(B61&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D61" s="5">
         <f>B61*Inställningar!$C$3/12</f>
-        <v>517.48333333333335</v>
+        <v>12.018055555555391</v>
       </c>
       <c r="E61" s="5">
         <f t="shared" si="2"/>
-        <v>2517.4833333333336</v>
+        <v>2845.3513888888888</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="3">
-        <v>42430</v>
+        <v>43040</v>
       </c>
       <c r="B62" s="5">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C62" s="5">
         <f>IF(B62&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D62" s="5">
         <f>B62*Inställningar!$C$3/12</f>
-        <v>509</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E62" s="5">
         <f t="shared" si="2"/>
-        <v>2509</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="3">
-        <v>42461</v>
+        <v>43070</v>
       </c>
       <c r="B63" s="5">
         <f t="shared" si="1"/>
-        <v>118000</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C63" s="5">
         <f>IF(B63&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D63" s="5">
         <f>B63*Inställningar!$C$3/12</f>
-        <v>500.51666666666665</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E63" s="5">
         <f t="shared" si="2"/>
-        <v>2500.5166666666664</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="3">
-        <v>42491</v>
+        <v>43101</v>
       </c>
       <c r="B64" s="5">
         <f t="shared" si="1"/>
-        <v>116000</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C64" s="5">
         <f>IF(B64&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D64" s="5">
         <f>B64*Inställningar!$C$3/12</f>
-        <v>492.03333333333336</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E64" s="5">
         <f t="shared" si="2"/>
-        <v>2492.0333333333333</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="3">
-        <v>42522</v>
+        <v>43132</v>
       </c>
       <c r="B65" s="5">
         <f t="shared" si="1"/>
-        <v>114000</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C65" s="5">
         <f>IF(B65&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D65" s="5">
         <f>B65*Inställningar!$C$3/12</f>
-        <v>483.55</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E65" s="5">
         <f t="shared" si="2"/>
-        <v>2483.5500000000002</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="3">
-        <v>42552</v>
+        <v>43160</v>
       </c>
       <c r="B66" s="5">
         <f t="shared" si="1"/>
-        <v>112000</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C66" s="5">
         <f>IF(B66&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D66" s="5">
         <f>B66*Inställningar!$C$3/12</f>
-        <v>475.06666666666666</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E66" s="5">
         <f t="shared" si="2"/>
-        <v>2475.0666666666666</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="3">
-        <v>42583</v>
+        <v>43191</v>
       </c>
       <c r="B67" s="5">
         <f t="shared" si="1"/>
-        <v>110000</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C67" s="5">
         <f>IF(B67&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D67" s="5">
         <f>B67*Inställningar!$C$3/12</f>
-        <v>466.58333333333331</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E67" s="5">
         <f t="shared" si="2"/>
-        <v>2466.5833333333335</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="3">
-        <v>42614</v>
+        <v>43221</v>
       </c>
       <c r="B68" s="5">
         <f t="shared" ref="B68:B131" si="3">B67-C67</f>
-        <v>108000</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C68" s="5">
         <f>IF(B68&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D68" s="5">
         <f>B68*Inställningar!$C$3/12</f>
-        <v>458.09999999999997</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E68" s="5">
         <f t="shared" ref="E68:E131" si="4">SUM(C68:D68)</f>
-        <v>2458.1</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="3">
-        <v>42644</v>
+        <v>43252</v>
       </c>
       <c r="B69" s="5">
         <f t="shared" si="3"/>
-        <v>106000</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C69" s="5">
         <f>IF(B69&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D69" s="5">
         <f>B69*Inställningar!$C$3/12</f>
-        <v>449.61666666666662</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E69" s="5">
         <f t="shared" si="4"/>
-        <v>2449.6166666666668</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="3">
-        <v>42675</v>
+        <v>43282</v>
       </c>
       <c r="B70" s="5">
         <f t="shared" si="3"/>
-        <v>104000</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C70" s="5">
         <f>IF(B70&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D70" s="5">
         <f>B70*Inställningar!$C$3/12</f>
-        <v>441.13333333333338</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E70" s="5">
         <f t="shared" si="4"/>
-        <v>2441.1333333333332</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="3">
-        <v>42705</v>
+        <v>43313</v>
       </c>
       <c r="B71" s="5">
         <f t="shared" si="3"/>
-        <v>102000</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C71" s="5">
         <f>IF(B71&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D71" s="5">
         <f>B71*Inställningar!$C$3/12</f>
-        <v>432.65000000000003</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E71" s="5">
         <f t="shared" si="4"/>
-        <v>2432.65</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="3">
-        <v>42736</v>
+        <v>43344</v>
       </c>
       <c r="B72" s="5">
         <f t="shared" si="3"/>
-        <v>100000</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C72" s="5">
         <f>IF(B72&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D72" s="5">
         <f>B72*Inställningar!$C$3/12</f>
-        <v>424.16666666666669</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E72" s="5">
         <f t="shared" si="4"/>
-        <v>2424.1666666666665</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="3">
-        <v>42767</v>
+        <v>43374</v>
       </c>
       <c r="B73" s="5">
         <f t="shared" si="3"/>
-        <v>98000</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C73" s="5">
         <f>IF(B73&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D73" s="5">
         <f>B73*Inställningar!$C$3/12</f>
-        <v>415.68333333333334</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E73" s="5">
         <f t="shared" si="4"/>
-        <v>2415.6833333333334</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="3">
-        <v>42795</v>
+        <v>43405</v>
       </c>
       <c r="B74" s="5">
         <f t="shared" si="3"/>
-        <v>96000</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C74" s="5">
         <f>IF(B74&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D74" s="5">
         <f>B74*Inställningar!$C$3/12</f>
-        <v>407.2</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E74" s="5">
         <f t="shared" si="4"/>
-        <v>2407.1999999999998</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="3">
-        <v>42826</v>
+        <v>43435</v>
       </c>
       <c r="B75" s="5">
         <f t="shared" si="3"/>
-        <v>94000</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C75" s="5">
         <f>IF(B75&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D75" s="5">
         <f>B75*Inställningar!$C$3/12</f>
-        <v>398.7166666666667</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E75" s="5">
         <f t="shared" si="4"/>
-        <v>2398.7166666666667</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="3">
-        <v>42856</v>
+        <v>43466</v>
       </c>
       <c r="B76" s="5">
         <f t="shared" si="3"/>
-        <v>92000</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C76" s="5">
         <f>IF(B76&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D76" s="5">
         <f>B76*Inställningar!$C$3/12</f>
-        <v>390.23333333333335</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E76" s="5">
         <f t="shared" si="4"/>
-        <v>2390.2333333333336</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="3">
-        <v>42887</v>
+        <v>43497</v>
       </c>
       <c r="B77" s="5">
         <f t="shared" si="3"/>
-        <v>90000</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C77" s="5">
         <f>IF(B77&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D77" s="5">
         <f>B77*Inställningar!$C$3/12</f>
-        <v>381.75</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E77" s="5">
         <f t="shared" si="4"/>
-        <v>2381.75</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="3">
-        <v>42917</v>
+        <v>43525</v>
       </c>
       <c r="B78" s="5">
         <f t="shared" si="3"/>
-        <v>88000</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C78" s="5">
         <f>IF(B78&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D78" s="5">
         <f>B78*Inställningar!$C$3/12</f>
-        <v>373.26666666666665</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E78" s="5">
         <f t="shared" si="4"/>
-        <v>2373.2666666666664</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="3">
-        <v>42948</v>
+        <v>43556</v>
       </c>
       <c r="B79" s="5">
         <f t="shared" si="3"/>
-        <v>86000</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C79" s="5">
         <f>IF(B79&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D79" s="5">
         <f>B79*Inställningar!$C$3/12</f>
-        <v>364.7833333333333</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E79" s="5">
         <f t="shared" si="4"/>
-        <v>2364.7833333333333</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="3">
-        <v>42979</v>
+        <v>43586</v>
       </c>
       <c r="B80" s="5">
         <f t="shared" si="3"/>
-        <v>84000</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C80" s="5">
         <f>IF(B80&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D80" s="5">
         <f>B80*Inställningar!$C$3/12</f>
-        <v>356.3</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E80" s="5">
         <f t="shared" si="4"/>
-        <v>2356.3000000000002</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="3">
-        <v>43009</v>
+        <v>43617</v>
       </c>
       <c r="B81" s="5">
         <f t="shared" si="3"/>
-        <v>82000</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C81" s="5">
         <f>IF(B81&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D81" s="5">
         <f>B81*Inställningar!$C$3/12</f>
-        <v>347.81666666666666</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E81" s="5">
         <f t="shared" si="4"/>
-        <v>2347.8166666666666</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="3">
-        <v>43040</v>
+        <v>43647</v>
       </c>
       <c r="B82" s="5">
         <f t="shared" si="3"/>
-        <v>80000</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C82" s="5">
         <f>IF(B82&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D82" s="5">
         <f>B82*Inställningar!$C$3/12</f>
-        <v>339.33333333333331</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E82" s="5">
         <f t="shared" si="4"/>
-        <v>2339.3333333333335</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="3">
-        <v>43070</v>
+        <v>43678</v>
       </c>
       <c r="B83" s="5">
         <f t="shared" si="3"/>
-        <v>78000</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C83" s="5">
         <f>IF(B83&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D83" s="5">
         <f>B83*Inställningar!$C$3/12</f>
-        <v>330.85</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E83" s="5">
         <f t="shared" si="4"/>
-        <v>2330.85</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="3">
-        <v>43101</v>
+        <v>43709</v>
       </c>
       <c r="B84" s="5">
         <f t="shared" si="3"/>
-        <v>76000</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C84" s="5">
         <f>IF(B84&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D84" s="5">
         <f>B84*Inställningar!$C$3/12</f>
-        <v>322.36666666666667</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E84" s="5">
         <f t="shared" si="4"/>
-        <v>2322.3666666666668</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="3">
-        <v>43132</v>
+        <v>43739</v>
       </c>
       <c r="B85" s="5">
         <f t="shared" si="3"/>
-        <v>74000</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C85" s="5">
         <f>IF(B85&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D85" s="5">
         <f>B85*Inställningar!$C$3/12</f>
-        <v>313.88333333333333</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E85" s="5">
         <f t="shared" si="4"/>
-        <v>2313.8833333333332</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="3">
-        <v>43160</v>
+        <v>43770</v>
       </c>
       <c r="B86" s="5">
         <f t="shared" si="3"/>
-        <v>72000</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C86" s="5">
         <f>IF(B86&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D86" s="5">
         <f>B86*Inställningar!$C$3/12</f>
-        <v>305.40000000000003</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E86" s="5">
         <f t="shared" si="4"/>
-        <v>2305.4</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="3">
-        <v>43191</v>
+        <v>43800</v>
       </c>
       <c r="B87" s="5">
         <f t="shared" si="3"/>
-        <v>70000</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C87" s="5">
         <f>IF(B87&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D87" s="5">
         <f>B87*Inställningar!$C$3/12</f>
-        <v>296.91666666666669</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E87" s="5">
         <f t="shared" si="4"/>
-        <v>2296.9166666666665</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="3">
-        <v>43221</v>
+        <v>43831</v>
       </c>
       <c r="B88" s="5">
         <f t="shared" si="3"/>
-        <v>68000</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C88" s="5">
         <f>IF(B88&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D88" s="5">
         <f>B88*Inställningar!$C$3/12</f>
-        <v>288.43333333333334</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E88" s="5">
         <f t="shared" si="4"/>
-        <v>2288.4333333333334</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="3">
-        <v>43252</v>
+        <v>43862</v>
       </c>
       <c r="B89" s="5">
         <f t="shared" si="3"/>
-        <v>66000</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C89" s="5">
         <f>IF(B89&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D89" s="5">
         <f>B89*Inställningar!$C$3/12</f>
-        <v>279.95</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E89" s="5">
         <f t="shared" si="4"/>
-        <v>2279.9499999999998</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="3">
-        <v>43282</v>
+        <v>43891</v>
       </c>
       <c r="B90" s="5">
         <f t="shared" si="3"/>
-        <v>64000</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C90" s="5">
         <f>IF(B90&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D90" s="5">
         <f>B90*Inställningar!$C$3/12</f>
-        <v>271.46666666666664</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E90" s="5">
         <f t="shared" si="4"/>
-        <v>2271.4666666666667</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="3">
-        <v>43313</v>
+        <v>43922</v>
       </c>
       <c r="B91" s="5">
         <f t="shared" si="3"/>
-        <v>62000</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C91" s="5">
         <f>IF(B91&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D91" s="5">
         <f>B91*Inställningar!$C$3/12</f>
-        <v>262.98333333333335</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E91" s="5">
         <f t="shared" si="4"/>
-        <v>2262.9833333333336</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="3">
-        <v>43344</v>
+        <v>43952</v>
       </c>
       <c r="B92" s="5">
         <f t="shared" si="3"/>
-        <v>60000</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C92" s="5">
         <f>IF(B92&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D92" s="5">
         <f>B92*Inställningar!$C$3/12</f>
-        <v>254.5</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E92" s="5">
         <f t="shared" si="4"/>
-        <v>2254.5</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="3">
-        <v>43374</v>
+        <v>43983</v>
       </c>
       <c r="B93" s="5">
         <f t="shared" si="3"/>
-        <v>58000</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C93" s="5">
         <f>IF(B93&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D93" s="5">
         <f>B93*Inställningar!$C$3/12</f>
-        <v>246.01666666666668</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E93" s="5">
         <f t="shared" si="4"/>
-        <v>2246.0166666666669</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="3">
-        <v>43405</v>
+        <v>44013</v>
       </c>
       <c r="B94" s="5">
         <f t="shared" si="3"/>
-        <v>56000</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C94" s="5">
         <f>IF(B94&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D94" s="5">
         <f>B94*Inställningar!$C$3/12</f>
-        <v>237.53333333333333</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E94" s="5">
         <f t="shared" si="4"/>
-        <v>2237.5333333333333</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="3">
-        <v>43435</v>
+        <v>44044</v>
       </c>
       <c r="B95" s="5">
         <f t="shared" si="3"/>
-        <v>54000</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C95" s="5">
         <f>IF(B95&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D95" s="5">
         <f>B95*Inställningar!$C$3/12</f>
-        <v>229.04999999999998</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E95" s="5">
         <f t="shared" si="4"/>
-        <v>2229.0500000000002</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="3">
-        <v>43466</v>
+        <v>44075</v>
       </c>
       <c r="B96" s="5">
         <f t="shared" si="3"/>
-        <v>52000</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C96" s="5">
         <f>IF(B96&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D96" s="5">
         <f>B96*Inställningar!$C$3/12</f>
-        <v>220.56666666666669</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E96" s="5">
         <f t="shared" si="4"/>
-        <v>2220.5666666666666</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="3">
-        <v>43497</v>
+        <v>44105</v>
       </c>
       <c r="B97" s="5">
         <f t="shared" si="3"/>
-        <v>50000</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C97" s="5">
         <f>IF(B97&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D97" s="5">
         <f>B97*Inställningar!$C$3/12</f>
-        <v>212.08333333333334</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E97" s="5">
         <f t="shared" si="4"/>
-        <v>2212.0833333333335</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="3">
-        <v>43525</v>
+        <v>44136</v>
       </c>
       <c r="B98" s="5">
         <f t="shared" si="3"/>
-        <v>48000</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C98" s="5">
         <f>IF(B98&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D98" s="5">
         <f>B98*Inställningar!$C$3/12</f>
-        <v>203.6</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E98" s="5">
         <f t="shared" si="4"/>
-        <v>2203.6</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="3">
-        <v>43556</v>
+        <v>44166</v>
       </c>
       <c r="B99" s="5">
         <f t="shared" si="3"/>
-        <v>46000</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C99" s="5">
         <f>IF(B99&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D99" s="5">
         <f>B99*Inställningar!$C$3/12</f>
-        <v>195.11666666666667</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E99" s="5">
         <f t="shared" si="4"/>
-        <v>2195.1166666666668</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="3">
-        <v>43586</v>
+        <v>44197</v>
       </c>
       <c r="B100" s="5">
         <f t="shared" si="3"/>
-        <v>44000</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C100" s="5">
         <f>IF(B100&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D100" s="5">
         <f>B100*Inställningar!$C$3/12</f>
-        <v>186.63333333333333</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E100" s="5">
         <f t="shared" si="4"/>
-        <v>2186.6333333333332</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="3">
-        <v>43617</v>
+        <v>44228</v>
       </c>
       <c r="B101" s="5">
         <f t="shared" si="3"/>
-        <v>42000</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C101" s="5">
         <f>IF(B101&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D101" s="5">
         <f>B101*Inställningar!$C$3/12</f>
-        <v>178.15</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E101" s="5">
         <f t="shared" si="4"/>
-        <v>2178.15</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="3">
-        <v>43647</v>
+        <v>44256</v>
       </c>
       <c r="B102" s="5">
         <f t="shared" si="3"/>
-        <v>40000</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C102" s="5">
         <f>IF(B102&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D102" s="5">
         <f>B102*Inställningar!$C$3/12</f>
-        <v>169.66666666666666</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E102" s="5">
         <f t="shared" si="4"/>
-        <v>2169.6666666666665</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="3">
-        <v>43678</v>
+        <v>44287</v>
       </c>
       <c r="B103" s="5">
         <f t="shared" si="3"/>
-        <v>38000</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C103" s="5">
         <f>IF(B103&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D103" s="5">
         <f>B103*Inställningar!$C$3/12</f>
-        <v>161.18333333333334</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E103" s="5">
         <f t="shared" si="4"/>
-        <v>2161.1833333333334</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="3">
-        <v>43709</v>
+        <v>44317</v>
       </c>
       <c r="B104" s="5">
         <f t="shared" si="3"/>
-        <v>36000</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C104" s="5">
         <f>IF(B104&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D104" s="5">
         <f>B104*Inställningar!$C$3/12</f>
-        <v>152.70000000000002</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E104" s="5">
         <f t="shared" si="4"/>
-        <v>2152.6999999999998</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="3">
-        <v>43739</v>
+        <v>44348</v>
       </c>
       <c r="B105" s="5">
         <f t="shared" si="3"/>
-        <v>34000</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C105" s="5">
         <f>IF(B105&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D105" s="5">
         <f>B105*Inställningar!$C$3/12</f>
-        <v>144.21666666666667</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E105" s="5">
         <f t="shared" si="4"/>
-        <v>2144.2166666666667</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="3">
-        <v>43770</v>
+        <v>44378</v>
       </c>
       <c r="B106" s="5">
         <f t="shared" si="3"/>
-        <v>32000</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C106" s="5">
         <f>IF(B106&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D106" s="5">
         <f>B106*Inställningar!$C$3/12</f>
-        <v>135.73333333333332</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E106" s="5">
         <f t="shared" si="4"/>
-        <v>2135.7333333333331</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="3">
-        <v>43800</v>
+        <v>44409</v>
       </c>
       <c r="B107" s="5">
         <f t="shared" si="3"/>
-        <v>30000</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C107" s="5">
         <f>IF(B107&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D107" s="5">
         <f>B107*Inställningar!$C$3/12</f>
-        <v>127.25</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E107" s="5">
         <f t="shared" si="4"/>
-        <v>2127.25</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="3">
-        <v>43831</v>
+        <v>44440</v>
       </c>
       <c r="B108" s="5">
         <f t="shared" si="3"/>
-        <v>28000</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C108" s="5">
         <f>IF(B108&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D108" s="5">
         <f>B108*Inställningar!$C$3/12</f>
-        <v>118.76666666666667</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E108" s="5">
         <f t="shared" si="4"/>
-        <v>2118.7666666666669</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="3">
-        <v>43862</v>
+        <v>44470</v>
       </c>
       <c r="B109" s="5">
         <f t="shared" si="3"/>
-        <v>26000</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C109" s="5">
         <f>IF(B109&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D109" s="5">
         <f>B109*Inställningar!$C$3/12</f>
-        <v>110.28333333333335</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E109" s="5">
         <f t="shared" si="4"/>
-        <v>2110.2833333333333</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="3">
-        <v>43891</v>
+        <v>44501</v>
       </c>
       <c r="B110" s="5">
         <f t="shared" si="3"/>
-        <v>24000</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C110" s="5">
         <f>IF(B110&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D110" s="5">
         <f>B110*Inställningar!$C$3/12</f>
-        <v>101.8</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E110" s="5">
         <f t="shared" si="4"/>
-        <v>2101.8000000000002</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="3">
-        <v>43922</v>
+        <v>44531</v>
       </c>
       <c r="B111" s="5">
         <f t="shared" si="3"/>
-        <v>22000</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C111" s="5">
         <f>IF(B111&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D111" s="5">
         <f>B111*Inställningar!$C$3/12</f>
-        <v>93.316666666666663</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E111" s="5">
         <f t="shared" si="4"/>
-        <v>2093.3166666666666</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="3">
-        <v>43952</v>
+        <v>44562</v>
       </c>
       <c r="B112" s="5">
         <f t="shared" si="3"/>
-        <v>20000</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C112" s="5">
         <f>IF(B112&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D112" s="5">
         <f>B112*Inställningar!$C$3/12</f>
-        <v>84.833333333333329</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E112" s="5">
         <f t="shared" si="4"/>
-        <v>2084.8333333333335</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="3">
-        <v>43983</v>
+        <v>44593</v>
       </c>
       <c r="B113" s="5">
         <f t="shared" si="3"/>
-        <v>18000</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C113" s="5">
         <f>IF(B113&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D113" s="5">
         <f>B113*Inställningar!$C$3/12</f>
-        <v>76.350000000000009</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E113" s="5">
         <f t="shared" si="4"/>
-        <v>2076.35</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="3">
-        <v>44013</v>
+        <v>44621</v>
       </c>
       <c r="B114" s="5">
         <f t="shared" si="3"/>
-        <v>16000</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C114" s="5">
         <f>IF(B114&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D114" s="5">
         <f>B114*Inställningar!$C$3/12</f>
-        <v>67.86666666666666</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E114" s="5">
         <f t="shared" si="4"/>
-        <v>2067.8666666666668</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="3">
-        <v>44044</v>
+        <v>44652</v>
       </c>
       <c r="B115" s="5">
         <f t="shared" si="3"/>
-        <v>14000</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C115" s="5">
         <f>IF(B115&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D115" s="5">
         <f>B115*Inställningar!$C$3/12</f>
-        <v>59.383333333333333</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E115" s="5">
         <f t="shared" si="4"/>
-        <v>2059.3833333333332</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="3">
-        <v>44075</v>
+        <v>44682</v>
       </c>
       <c r="B116" s="5">
         <f t="shared" si="3"/>
-        <v>12000</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C116" s="5">
         <f>IF(B116&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D116" s="5">
         <f>B116*Inställningar!$C$3/12</f>
-        <v>50.9</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E116" s="5">
         <f t="shared" si="4"/>
-        <v>2050.9</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="3">
-        <v>44105</v>
+        <v>44713</v>
       </c>
       <c r="B117" s="5">
         <f t="shared" si="3"/>
-        <v>10000</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C117" s="5">
         <f>IF(B117&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D117" s="5">
         <f>B117*Inställningar!$C$3/12</f>
-        <v>42.416666666666664</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E117" s="5">
         <f t="shared" si="4"/>
-        <v>2042.4166666666667</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="3">
-        <v>44136</v>
+        <v>44743</v>
       </c>
       <c r="B118" s="5">
         <f t="shared" si="3"/>
-        <v>8000</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C118" s="5">
         <f>IF(B118&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D118" s="5">
         <f>B118*Inställningar!$C$3/12</f>
-        <v>33.93333333333333</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E118" s="5">
         <f t="shared" si="4"/>
-        <v>2033.9333333333334</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="3">
-        <v>44166</v>
+        <v>44774</v>
       </c>
       <c r="B119" s="5">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C119" s="5">
         <f>IF(B119&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D119" s="5">
         <f>B119*Inställningar!$C$3/12</f>
-        <v>25.45</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E119" s="5">
         <f t="shared" si="4"/>
-        <v>2025.45</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="3">
-        <v>44197</v>
+        <v>44805</v>
       </c>
       <c r="B120" s="5">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C120" s="5">
         <f>IF(B120&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D120" s="5">
         <f>B120*Inställningar!$C$3/12</f>
-        <v>16.966666666666665</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E120" s="5">
         <f t="shared" si="4"/>
-        <v>2016.9666666666667</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="3">
-        <v>44228</v>
+        <v>44835</v>
       </c>
       <c r="B121" s="5">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C121" s="5">
         <f>IF(B121&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D121" s="5">
         <f>B121*Inställningar!$C$3/12</f>
-        <v>8.4833333333333325</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E121" s="5">
         <f t="shared" si="4"/>
-        <v>2008.4833333333333</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="3">
-        <v>44256</v>
+        <v>44866</v>
       </c>
       <c r="B122" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C122" s="5">
         <f>IF(B122&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3089,20 +3090,20 @@
       </c>
       <c r="D122" s="5">
         <f>B122*Inställningar!$C$3/12</f>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E122" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="3">
-        <v>44287</v>
+        <v>44896</v>
       </c>
       <c r="B123" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C123" s="5">
         <f>IF(B123&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3110,20 +3111,20 @@
       </c>
       <c r="D123" s="5">
         <f>B123*Inställningar!$C$3/12</f>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E123" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="3">
-        <v>44317</v>
+        <v>44927</v>
       </c>
       <c r="B124" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C124" s="5">
         <f>IF(B124&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3131,20 +3132,20 @@
       </c>
       <c r="D124" s="5">
         <f>B124*Inställningar!$C$3/12</f>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E124" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="3">
-        <v>44348</v>
+        <v>44958</v>
       </c>
       <c r="B125" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C125" s="5">
         <f>IF(B125&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3152,20 +3153,20 @@
       </c>
       <c r="D125" s="5">
         <f>B125*Inställningar!$C$3/12</f>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E125" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="3">
-        <v>44378</v>
+        <v>44986</v>
       </c>
       <c r="B126" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C126" s="5">
         <f>IF(B126&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3173,20 +3174,20 @@
       </c>
       <c r="D126" s="5">
         <f>B126*Inställningar!$C$3/12</f>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E126" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="3">
-        <v>44409</v>
+        <v>45017</v>
       </c>
       <c r="B127" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C127" s="5">
         <f>IF(B127&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3194,20 +3195,20 @@
       </c>
       <c r="D127" s="5">
         <f>B127*Inställningar!$C$3/12</f>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E127" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="3">
-        <v>44440</v>
+        <v>45047</v>
       </c>
       <c r="B128" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C128" s="5">
         <f>IF(B128&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3215,20 +3216,20 @@
       </c>
       <c r="D128" s="5">
         <f>B128*Inställningar!$C$3/12</f>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E128" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="3">
-        <v>44470</v>
+        <v>45078</v>
       </c>
       <c r="B129" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C129" s="5">
         <f>IF(B129&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3236,20 +3237,20 @@
       </c>
       <c r="D129" s="5">
         <f>B129*Inställningar!$C$3/12</f>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E129" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="3">
-        <v>44501</v>
+        <v>45108</v>
       </c>
       <c r="B130" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C130" s="5">
         <f>IF(B130&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3257,20 +3258,20 @@
       </c>
       <c r="D130" s="5">
         <f>B130*Inställningar!$C$3/12</f>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E130" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="3">
-        <v>44531</v>
+        <v>45139</v>
       </c>
       <c r="B131" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C131" s="5">
         <f>IF(B131&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3278,20 +3279,20 @@
       </c>
       <c r="D131" s="5">
         <f>B131*Inställningar!$C$3/12</f>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E131" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="3">
-        <v>44562</v>
+        <v>45170</v>
       </c>
       <c r="B132" s="5">
         <f t="shared" ref="B132:B167" si="5">B131-C131</f>
-        <v>0</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C132" s="5">
         <f>IF(B132&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3299,20 +3300,20 @@
       </c>
       <c r="D132" s="5">
         <f>B132*Inställningar!$C$3/12</f>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E132" s="5">
         <f t="shared" ref="E132:E167" si="6">SUM(C132:D132)</f>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="3">
-        <v>44593</v>
+        <v>45200</v>
       </c>
       <c r="B133" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C133" s="5">
         <f>IF(B133&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3320,20 +3321,20 @@
       </c>
       <c r="D133" s="5">
         <f>B133*Inställningar!$C$3/12</f>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E133" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="3">
-        <v>44621</v>
+        <v>45231</v>
       </c>
       <c r="B134" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C134" s="5">
         <f>IF(B134&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3341,20 +3342,20 @@
       </c>
       <c r="D134" s="5">
         <f>B134*Inställningar!$C$3/12</f>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E134" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="3">
-        <v>44652</v>
+        <v>45261</v>
       </c>
       <c r="B135" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C135" s="5">
         <f>IF(B135&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3362,20 +3363,20 @@
       </c>
       <c r="D135" s="5">
         <f>B135*Inställningar!$C$3/12</f>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E135" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="3">
-        <v>44682</v>
+        <v>45292</v>
       </c>
       <c r="B136" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C136" s="5">
         <f>IF(B136&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3383,20 +3384,20 @@
       </c>
       <c r="D136" s="5">
         <f>B136*Inställningar!$C$3/12</f>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E136" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="3">
-        <v>44713</v>
+        <v>45323</v>
       </c>
       <c r="B137" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C137" s="5">
         <f>IF(B137&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3404,20 +3405,20 @@
       </c>
       <c r="D137" s="5">
         <f>B137*Inställningar!$C$3/12</f>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E137" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="3">
-        <v>44743</v>
+        <v>45352</v>
       </c>
       <c r="B138" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C138" s="5">
         <f>IF(B138&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3425,20 +3426,20 @@
       </c>
       <c r="D138" s="5">
         <f>B138*Inställningar!$C$3/12</f>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E138" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="3">
-        <v>44774</v>
+        <v>45383</v>
       </c>
       <c r="B139" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C139" s="5">
         <f>IF(B139&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3446,20 +3447,20 @@
       </c>
       <c r="D139" s="5">
         <f>B139*Inställningar!$C$3/12</f>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E139" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="3">
-        <v>44805</v>
+        <v>45413</v>
       </c>
       <c r="B140" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C140" s="5">
         <f>IF(B140&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3467,20 +3468,20 @@
       </c>
       <c r="D140" s="5">
         <f>B140*Inställningar!$C$3/12</f>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E140" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="3">
-        <v>44835</v>
+        <v>45444</v>
       </c>
       <c r="B141" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C141" s="5">
         <f>IF(B141&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3488,20 +3489,20 @@
       </c>
       <c r="D141" s="5">
         <f>B141*Inställningar!$C$3/12</f>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E141" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="3">
-        <v>44866</v>
+        <v>45474</v>
       </c>
       <c r="B142" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C142" s="5">
         <f>IF(B142&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3509,20 +3510,20 @@
       </c>
       <c r="D142" s="5">
         <f>B142*Inställningar!$C$3/12</f>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E142" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="3">
-        <v>44896</v>
+        <v>45505</v>
       </c>
       <c r="B143" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C143" s="5">
         <f>IF(B143&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3530,20 +3531,20 @@
       </c>
       <c r="D143" s="5">
         <f>B143*Inställningar!$C$3/12</f>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E143" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="3">
-        <v>44927</v>
+        <v>45536</v>
       </c>
       <c r="B144" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C144" s="5">
         <f>IF(B144&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3551,20 +3552,20 @@
       </c>
       <c r="D144" s="5">
         <f>B144*Inställningar!$C$3/12</f>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E144" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="3">
-        <v>44958</v>
+        <v>45566</v>
       </c>
       <c r="B145" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C145" s="5">
         <f>IF(B145&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3572,20 +3573,20 @@
       </c>
       <c r="D145" s="5">
         <f>B145*Inställningar!$C$3/12</f>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E145" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="3">
-        <v>44986</v>
+        <v>45597</v>
       </c>
       <c r="B146" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C146" s="5">
         <f>IF(B146&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3593,20 +3594,20 @@
       </c>
       <c r="D146" s="5">
         <f>B146*Inställningar!$C$3/12</f>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E146" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="3">
-        <v>45017</v>
+        <v>45627</v>
       </c>
       <c r="B147" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C147" s="5">
         <f>IF(B147&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3614,20 +3615,20 @@
       </c>
       <c r="D147" s="5">
         <f>B147*Inställningar!$C$3/12</f>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E147" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="3">
-        <v>45047</v>
+        <v>45658</v>
       </c>
       <c r="B148" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C148" s="5">
         <f>IF(B148&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3635,20 +3636,20 @@
       </c>
       <c r="D148" s="5">
         <f>B148*Inställningar!$C$3/12</f>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E148" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="3">
-        <v>45078</v>
+        <v>45689</v>
       </c>
       <c r="B149" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C149" s="5">
         <f>IF(B149&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3656,20 +3657,20 @@
       </c>
       <c r="D149" s="5">
         <f>B149*Inställningar!$C$3/12</f>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E149" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="3">
-        <v>45108</v>
+        <v>45717</v>
       </c>
       <c r="B150" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C150" s="5">
         <f>IF(B150&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3677,20 +3678,20 @@
       </c>
       <c r="D150" s="5">
         <f>B150*Inställningar!$C$3/12</f>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E150" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="3">
-        <v>45139</v>
+        <v>45748</v>
       </c>
       <c r="B151" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C151" s="5">
         <f>IF(B151&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3698,20 +3699,20 @@
       </c>
       <c r="D151" s="5">
         <f>B151*Inställningar!$C$3/12</f>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E151" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="3">
-        <v>45170</v>
+        <v>45778</v>
       </c>
       <c r="B152" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C152" s="5">
         <f>IF(B152&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3719,20 +3720,20 @@
       </c>
       <c r="D152" s="5">
         <f>B152*Inställningar!$C$3/12</f>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E152" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="3">
-        <v>45200</v>
+        <v>45809</v>
       </c>
       <c r="B153" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C153" s="5">
         <f>IF(B153&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3740,20 +3741,20 @@
       </c>
       <c r="D153" s="5">
         <f>B153*Inställningar!$C$3/12</f>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E153" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="3">
-        <v>45231</v>
+        <v>45839</v>
       </c>
       <c r="B154" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C154" s="5">
         <f>IF(B154&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3761,20 +3762,20 @@
       </c>
       <c r="D154" s="5">
         <f>B154*Inställningar!$C$3/12</f>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E154" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="3">
-        <v>45261</v>
+        <v>45870</v>
       </c>
       <c r="B155" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C155" s="5">
         <f>IF(B155&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3782,20 +3783,20 @@
       </c>
       <c r="D155" s="5">
         <f>B155*Inställningar!$C$3/12</f>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E155" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="3">
-        <v>45292</v>
+        <v>45901</v>
       </c>
       <c r="B156" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C156" s="5">
         <f>IF(B156&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3803,20 +3804,20 @@
       </c>
       <c r="D156" s="5">
         <f>B156*Inställningar!$C$3/12</f>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E156" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="3">
-        <v>45323</v>
+        <v>45931</v>
       </c>
       <c r="B157" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C157" s="5">
         <f>IF(B157&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3824,20 +3825,20 @@
       </c>
       <c r="D157" s="5">
         <f>B157*Inställningar!$C$3/12</f>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E157" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="3">
-        <v>45352</v>
+        <v>45962</v>
       </c>
       <c r="B158" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C158" s="5">
         <f>IF(B158&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3845,20 +3846,20 @@
       </c>
       <c r="D158" s="5">
         <f>B158*Inställningar!$C$3/12</f>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E158" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="3">
-        <v>45383</v>
+        <v>45992</v>
       </c>
       <c r="B159" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C159" s="5">
         <f>IF(B159&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3866,20 +3867,20 @@
       </c>
       <c r="D159" s="5">
         <f>B159*Inställningar!$C$3/12</f>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E159" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="3">
-        <v>45413</v>
+        <v>46023</v>
       </c>
       <c r="B160" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C160" s="5">
         <f>IF(B160&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3887,20 +3888,20 @@
       </c>
       <c r="D160" s="5">
         <f>B160*Inställningar!$C$3/12</f>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E160" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="3">
-        <v>45444</v>
+        <v>46054</v>
       </c>
       <c r="B161" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C161" s="5">
         <f>IF(B161&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3908,20 +3909,20 @@
       </c>
       <c r="D161" s="5">
         <f>B161*Inställningar!$C$3/12</f>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E161" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="3">
-        <v>45474</v>
+        <v>46082</v>
       </c>
       <c r="B162" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C162" s="5">
         <f>IF(B162&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3929,20 +3930,20 @@
       </c>
       <c r="D162" s="5">
         <f>B162*Inställningar!$C$3/12</f>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E162" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="3">
-        <v>45505</v>
+        <v>46113</v>
       </c>
       <c r="B163" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C163" s="5">
         <f>IF(B163&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3950,20 +3951,20 @@
       </c>
       <c r="D163" s="5">
         <f>B163*Inställningar!$C$3/12</f>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E163" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="3">
-        <v>45536</v>
+        <v>46143</v>
       </c>
       <c r="B164" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C164" s="5">
         <f>IF(B164&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3971,20 +3972,20 @@
       </c>
       <c r="D164" s="5">
         <f>B164*Inställningar!$C$3/12</f>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E164" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="3">
-        <v>45566</v>
+        <v>46174</v>
       </c>
       <c r="B165" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C165" s="5">
         <f>IF(B165&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3992,20 +3993,20 @@
       </c>
       <c r="D165" s="5">
         <f>B165*Inställningar!$C$3/12</f>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E165" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="3">
-        <v>45597</v>
+        <v>46204</v>
       </c>
       <c r="B166" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C166" s="5">
         <f>IF(B166&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -4013,20 +4014,20 @@
       </c>
       <c r="D166" s="5">
         <f>B166*Inställningar!$C$3/12</f>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E166" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="3">
-        <v>45627</v>
+        <v>46235</v>
       </c>
       <c r="B167" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C167" s="5">
         <f>IF(B167&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -4034,11 +4035,11 @@
       </c>
       <c r="D167" s="5">
         <f>B167*Inställningar!$C$3/12</f>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
       <c r="E167" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1.6588425448086732E-13</v>
       </c>
     </row>
   </sheetData>
@@ -4048,10 +4049,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4075,75 +4076,74 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>8200</v>
+        <v>8000</v>
       </c>
       <c r="C2" s="8">
-        <v>0.57999999999999996</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <f>B2*C2</f>
-        <v>4756</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3">
-        <f>Månadsöversikt!E2</f>
-        <v>3018</v>
+        <v>4000</v>
       </c>
       <c r="C3" s="8">
         <v>1</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D16" si="0">B3*C3</f>
-        <v>3018</v>
+        <f t="shared" ref="D3:D13" si="0">B3*C3</f>
+        <v>4000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4">
-        <v>2200</v>
+        <v>600</v>
       </c>
       <c r="C4" s="8">
         <v>1</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>2200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5">
-        <v>7000</v>
+        <v>1600</v>
       </c>
       <c r="C5" s="8">
-        <v>0.57999999999999996</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>4059.9999999999995</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="C6" s="8">
-        <v>0.57999999999999996</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>348</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4151,74 +4151,47 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="C7" s="8">
         <v>1</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8">
-        <v>2100</v>
+        <v>1400</v>
       </c>
       <c r="C8" s="8">
         <v>1</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>2100</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9">
-        <v>800</v>
-      </c>
-      <c r="C9" s="8">
-        <v>0.57999999999999996</v>
-      </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>463.99999999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10">
-        <v>350</v>
-      </c>
-      <c r="C10" s="8">
-        <v>0.57999999999999996</v>
-      </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11">
-        <v>1400</v>
-      </c>
-      <c r="C11" s="8">
-        <v>1</v>
-      </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>1400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4233,55 +4206,66 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
       <c r="D15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18">
-        <f>SUM(D2:D16)</f>
-        <v>19049</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
+        <f>SUM(D2:D13)</f>
+        <v>16050</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>39200</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0.68</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17" si="1">B17*C17</f>
+        <v>26656.000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="C19" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="6">
+        <f>D17-D15</f>
+        <v>10606.000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21">
+        <f>Månadsöversikt!E2</f>
+        <v>3554.416666666667</v>
+      </c>
+      <c r="C21" s="8">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <f>B21*C21</f>
+        <v>3554.416666666667</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="C23" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B20">
-        <v>34000</v>
-      </c>
-      <c r="C20" s="8">
-        <v>0.68</v>
-      </c>
-      <c r="D20">
-        <f t="shared" ref="D20" si="1">B20*C20</f>
-        <v>23120</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="D22">
-        <f>D20-D18</f>
-        <v>4071</v>
+      <c r="D23" s="6">
+        <f>D19-D21</f>
+        <v>7051.5833333333367</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/trunk/admin/old/lånekalkyler.xlsx
+++ b/trunk/admin/old/lånekalkyler.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="36" windowWidth="8364" windowHeight="1296"/>
+    <workbookView xWindow="96" yWindow="36" windowWidth="8364" windowHeight="1296" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Inställningar" sheetId="1" r:id="rId1"/>
@@ -465,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -480,7 +480,8 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>170000</v>
+        <f>142500+25600</f>
+        <v>168100</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
@@ -528,7 +529,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -562,19 +563,19 @@
       </c>
       <c r="B2" s="5">
         <f>Inställningar!C2</f>
-        <v>170000</v>
+        <v>168100</v>
       </c>
       <c r="C2" s="5">
         <f>Inställningar!$C$2/Inställningar!$C$5</f>
-        <v>2833.3333333333335</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D2" s="5">
         <f>B2*Inställningar!$C$3/12</f>
-        <v>721.08333333333337</v>
+        <v>713.0241666666667</v>
       </c>
       <c r="E2" s="5">
         <f>SUM(C2:D2)</f>
-        <v>3554.416666666667</v>
+        <v>3514.6908333333331</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -583,19 +584,19 @@
       </c>
       <c r="B3" s="5">
         <f>B2-C2</f>
-        <v>167166.66666666666</v>
+        <v>165298.33333333334</v>
       </c>
       <c r="C3" s="5">
         <f>IF(B3&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2833.3333333333335</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D3" s="5">
         <f>B3*Inställningar!$C$3/12</f>
-        <v>709.06527777777774</v>
+        <v>701.14043055555567</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" ref="E3" si="0">SUM(C3:D3)</f>
-        <v>3542.3986111111112</v>
+        <v>3502.8070972222222</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -604,19 +605,19 @@
       </c>
       <c r="B4" s="5">
         <f t="shared" ref="B4:B67" si="1">B3-C3</f>
-        <v>164333.33333333331</v>
+        <v>162496.66666666669</v>
       </c>
       <c r="C4" s="5">
         <f>IF(B4&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2833.3333333333335</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D4" s="5">
         <f>B4*Inställningar!$C$3/12</f>
-        <v>697.0472222222221</v>
+        <v>689.25669444444463</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ref="E4:E67" si="2">SUM(C4:D4)</f>
-        <v>3530.3805555555555</v>
+        <v>3490.9233611111113</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -625,19 +626,19 @@
       </c>
       <c r="B5" s="5">
         <f t="shared" si="1"/>
-        <v>161499.99999999997</v>
+        <v>159695.00000000003</v>
       </c>
       <c r="C5" s="5">
         <f>IF(B5&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2833.3333333333335</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D5" s="5">
         <f>B5*Inställningar!$C$3/12</f>
-        <v>685.02916666666658</v>
+        <v>677.37295833333349</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" si="2"/>
-        <v>3518.3625000000002</v>
+        <v>3479.0396249999999</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -646,19 +647,19 @@
       </c>
       <c r="B6" s="5">
         <f t="shared" si="1"/>
-        <v>158666.66666666663</v>
+        <v>156893.33333333337</v>
       </c>
       <c r="C6" s="5">
         <f>IF(B6&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2833.3333333333335</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D6" s="5">
         <f>B6*Inställningar!$C$3/12</f>
-        <v>673.01111111111095</v>
+        <v>665.48922222222234</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" si="2"/>
-        <v>3506.3444444444444</v>
+        <v>3467.155888888889</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -667,19 +668,19 @@
       </c>
       <c r="B7" s="5">
         <f t="shared" si="1"/>
-        <v>155833.33333333328</v>
+        <v>154091.66666666672</v>
       </c>
       <c r="C7" s="5">
         <f>IF(B7&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2833.3333333333335</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D7" s="5">
         <f>B7*Inställningar!$C$3/12</f>
-        <v>660.99305555555532</v>
+        <v>653.6054861111113</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" si="2"/>
-        <v>3494.3263888888887</v>
+        <v>3455.2721527777776</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -688,19 +689,19 @@
       </c>
       <c r="B8" s="5">
         <f t="shared" si="1"/>
-        <v>152999.99999999994</v>
+        <v>151290.00000000006</v>
       </c>
       <c r="C8" s="5">
         <f>IF(B8&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2833.3333333333335</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D8" s="5">
         <f>B8*Inställningar!$C$3/12</f>
-        <v>648.9749999999998</v>
+        <v>641.72175000000027</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="2"/>
-        <v>3482.3083333333334</v>
+        <v>3443.3884166666667</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -709,19 +710,19 @@
       </c>
       <c r="B9" s="5">
         <f t="shared" si="1"/>
-        <v>150166.6666666666</v>
+        <v>148488.3333333334</v>
       </c>
       <c r="C9" s="5">
         <f>IF(B9&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2833.3333333333335</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D9" s="5">
         <f>B9*Inställningar!$C$3/12</f>
-        <v>636.95694444444416</v>
+        <v>629.83801388888912</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" si="2"/>
-        <v>3470.2902777777776</v>
+        <v>3431.5046805555558</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -730,19 +731,19 @@
       </c>
       <c r="B10" s="5">
         <f t="shared" si="1"/>
-        <v>147333.33333333326</v>
+        <v>145686.66666666674</v>
       </c>
       <c r="C10" s="5">
         <f>IF(B10&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2833.3333333333335</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D10" s="5">
         <f>B10*Inställningar!$C$3/12</f>
-        <v>624.93888888888853</v>
+        <v>617.95427777777809</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" si="2"/>
-        <v>3458.2722222222219</v>
+        <v>3419.6209444444448</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -751,19 +752,19 @@
       </c>
       <c r="B11" s="5">
         <f t="shared" si="1"/>
-        <v>144499.99999999991</v>
+        <v>142885.00000000009</v>
       </c>
       <c r="C11" s="5">
         <f>IF(B11&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2833.3333333333335</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D11" s="5">
         <f>B11*Inställningar!$C$3/12</f>
-        <v>612.92083333333301</v>
+        <v>606.07054166666705</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" si="2"/>
-        <v>3446.2541666666666</v>
+        <v>3407.7372083333335</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -772,19 +773,19 @@
       </c>
       <c r="B12" s="5">
         <f t="shared" si="1"/>
-        <v>141666.66666666657</v>
+        <v>140083.33333333343</v>
       </c>
       <c r="C12" s="5">
         <f>IF(B12&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2833.3333333333335</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D12" s="5">
         <f>B12*Inställningar!$C$3/12</f>
-        <v>600.90277777777737</v>
+        <v>594.18680555555591</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" si="2"/>
-        <v>3434.2361111111109</v>
+        <v>3395.8534722222225</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -793,19 +794,19 @@
       </c>
       <c r="B13" s="5">
         <f t="shared" si="1"/>
-        <v>138833.33333333323</v>
+        <v>137281.66666666677</v>
       </c>
       <c r="C13" s="5">
         <f>IF(B13&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2833.3333333333335</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D13" s="5">
         <f>B13*Inställningar!$C$3/12</f>
-        <v>588.88472222222174</v>
+        <v>582.30306944444487</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" si="2"/>
-        <v>3422.2180555555551</v>
+        <v>3383.9697361111112</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -814,19 +815,19 @@
       </c>
       <c r="B14" s="5">
         <f t="shared" si="1"/>
-        <v>135999.99999999988</v>
+        <v>134480.00000000012</v>
       </c>
       <c r="C14" s="5">
         <f>IF(B14&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2833.3333333333335</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D14" s="5">
         <f>B14*Inställningar!$C$3/12</f>
-        <v>576.86666666666622</v>
+        <v>570.41933333333384</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" si="2"/>
-        <v>3410.2</v>
+        <v>3372.0860000000002</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -835,19 +836,19 @@
       </c>
       <c r="B15" s="5">
         <f t="shared" si="1"/>
-        <v>133166.66666666654</v>
+        <v>131678.33333333346</v>
       </c>
       <c r="C15" s="5">
         <f>IF(B15&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2833.3333333333335</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D15" s="5">
         <f>B15*Inställningar!$C$3/12</f>
-        <v>564.84861111111059</v>
+        <v>558.53559722222269</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" si="2"/>
-        <v>3398.1819444444441</v>
+        <v>3360.2022638888893</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -856,19 +857,19 @@
       </c>
       <c r="B16" s="5">
         <f t="shared" si="1"/>
-        <v>130333.33333333321</v>
+        <v>128876.66666666679</v>
       </c>
       <c r="C16" s="5">
         <f>IF(B16&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2833.3333333333335</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D16" s="5">
         <f>B16*Inställningar!$C$3/12</f>
-        <v>552.83055555555507</v>
+        <v>546.65186111111166</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" si="2"/>
-        <v>3386.1638888888883</v>
+        <v>3348.3185277777784</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -877,19 +878,19 @@
       </c>
       <c r="B17" s="5">
         <f t="shared" si="1"/>
-        <v>127499.99999999988</v>
+        <v>126075.00000000012</v>
       </c>
       <c r="C17" s="5">
         <f>IF(B17&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2833.3333333333335</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D17" s="5">
         <f>B17*Inställningar!$C$3/12</f>
-        <v>540.81249999999955</v>
+        <v>534.76812500000051</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" si="2"/>
-        <v>3374.145833333333</v>
+        <v>3336.434791666667</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -898,19 +899,19 @@
       </c>
       <c r="B18" s="5">
         <f t="shared" si="1"/>
-        <v>124666.66666666656</v>
+        <v>123273.33333333344</v>
       </c>
       <c r="C18" s="5">
         <f>IF(B18&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2833.3333333333335</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D18" s="5">
         <f>B18*Inställningar!$C$3/12</f>
-        <v>528.79444444444391</v>
+        <v>522.88438888888936</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" si="2"/>
-        <v>3362.1277777777773</v>
+        <v>3324.5510555555556</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -919,19 +920,19 @@
       </c>
       <c r="B19" s="5">
         <f t="shared" si="1"/>
-        <v>121833.33333333323</v>
+        <v>120471.66666666677</v>
       </c>
       <c r="C19" s="5">
         <f>IF(B19&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2833.3333333333335</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D19" s="5">
         <f>B19*Inställningar!$C$3/12</f>
-        <v>516.77638888888839</v>
+        <v>511.00065277777821</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" si="2"/>
-        <v>3350.109722222222</v>
+        <v>3312.6673194444447</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -940,19 +941,19 @@
       </c>
       <c r="B20" s="5">
         <f t="shared" si="1"/>
-        <v>118999.9999999999</v>
+        <v>117670.0000000001</v>
       </c>
       <c r="C20" s="5">
         <f>IF(B20&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2833.3333333333335</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D20" s="5">
         <f>B20*Inställningar!$C$3/12</f>
-        <v>504.75833333333293</v>
+        <v>499.11691666666712</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" si="2"/>
-        <v>3338.0916666666662</v>
+        <v>3300.7835833333338</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -961,19 +962,19 @@
       </c>
       <c r="B21" s="5">
         <f t="shared" si="1"/>
-        <v>116166.66666666657</v>
+        <v>114868.33333333343</v>
       </c>
       <c r="C21" s="5">
         <f>IF(B21&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2833.3333333333335</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D21" s="5">
         <f>B21*Inställningar!$C$3/12</f>
-        <v>492.74027777777741</v>
+        <v>487.23318055555598</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" si="2"/>
-        <v>3326.0736111111109</v>
+        <v>3288.8998472222224</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -982,19 +983,19 @@
       </c>
       <c r="B22" s="5">
         <f t="shared" si="1"/>
-        <v>113333.33333333324</v>
+        <v>112066.66666666676</v>
       </c>
       <c r="C22" s="5">
         <f>IF(B22&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2833.3333333333335</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D22" s="5">
         <f>B22*Inställningar!$C$3/12</f>
-        <v>480.72222222222189</v>
+        <v>475.34944444444483</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" si="2"/>
-        <v>3314.0555555555552</v>
+        <v>3277.0161111111115</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1003,19 +1004,19 @@
       </c>
       <c r="B23" s="5">
         <f t="shared" si="1"/>
-        <v>110499.99999999991</v>
+        <v>109265.00000000009</v>
       </c>
       <c r="C23" s="5">
         <f>IF(B23&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2833.3333333333335</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D23" s="5">
         <f>B23*Inställningar!$C$3/12</f>
-        <v>468.70416666666625</v>
+        <v>463.46570833333368</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" si="2"/>
-        <v>3302.0374999999999</v>
+        <v>3265.1323750000001</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1024,19 +1025,19 @@
       </c>
       <c r="B24" s="5">
         <f t="shared" si="1"/>
-        <v>107666.66666666658</v>
+        <v>106463.33333333342</v>
       </c>
       <c r="C24" s="5">
         <f>IF(B24&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2833.3333333333335</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D24" s="5">
         <f>B24*Inställningar!$C$3/12</f>
-        <v>456.68611111111073</v>
+        <v>451.58197222222253</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" si="2"/>
-        <v>3290.0194444444442</v>
+        <v>3253.2486388888892</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1045,19 +1046,19 @@
       </c>
       <c r="B25" s="5">
         <f t="shared" si="1"/>
-        <v>104833.33333333326</v>
+        <v>103661.66666666674</v>
       </c>
       <c r="C25" s="5">
         <f>IF(B25&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2833.3333333333335</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D25" s="5">
         <f>B25*Inställningar!$C$3/12</f>
-        <v>444.66805555555521</v>
+        <v>439.6982361111115</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" si="2"/>
-        <v>3278.0013888888889</v>
+        <v>3241.3649027777778</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1066,19 +1067,19 @@
       </c>
       <c r="B26" s="5">
         <f t="shared" si="1"/>
-        <v>101999.99999999993</v>
+        <v>100860.00000000007</v>
       </c>
       <c r="C26" s="5">
         <f>IF(B26&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2833.3333333333335</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D26" s="5">
         <f>B26*Inställningar!$C$3/12</f>
-        <v>432.64999999999969</v>
+        <v>427.81450000000035</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" si="2"/>
-        <v>3265.9833333333331</v>
+        <v>3229.4811666666669</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1087,19 +1088,19 @@
       </c>
       <c r="B27" s="5">
         <f t="shared" si="1"/>
-        <v>99166.666666666599</v>
+        <v>98058.333333333401</v>
       </c>
       <c r="C27" s="5">
         <f>IF(B27&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2833.3333333333335</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D27" s="5">
         <f>B27*Inställningar!$C$3/12</f>
-        <v>420.63194444444417</v>
+        <v>415.9307638888892</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" si="2"/>
-        <v>3253.9652777777778</v>
+        <v>3217.5974305555555</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1108,19 +1109,19 @@
       </c>
       <c r="B28" s="5">
         <f t="shared" si="1"/>
-        <v>96333.33333333327</v>
+        <v>95256.66666666673</v>
       </c>
       <c r="C28" s="5">
         <f>IF(B28&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2833.3333333333335</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D28" s="5">
         <f>B28*Inställningar!$C$3/12</f>
-        <v>408.6138888888886</v>
+        <v>404.04702777777806</v>
       </c>
       <c r="E28" s="5">
         <f t="shared" si="2"/>
-        <v>3241.9472222222221</v>
+        <v>3205.7136944444446</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1129,19 +1130,19 @@
       </c>
       <c r="B29" s="5">
         <f t="shared" si="1"/>
-        <v>93499.999999999942</v>
+        <v>92455.000000000058</v>
       </c>
       <c r="C29" s="5">
         <f>IF(B29&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2833.3333333333335</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D29" s="5">
         <f>B29*Inställningar!$C$3/12</f>
-        <v>396.59583333333308</v>
+        <v>392.16329166666691</v>
       </c>
       <c r="E29" s="5">
         <f t="shared" si="2"/>
-        <v>3229.9291666666668</v>
+        <v>3193.8299583333333</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1150,19 +1151,19 @@
       </c>
       <c r="B30" s="5">
         <f t="shared" si="1"/>
-        <v>90666.666666666613</v>
+        <v>89653.333333333387</v>
       </c>
       <c r="C30" s="5">
         <f>IF(B30&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2833.3333333333335</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D30" s="5">
         <f>B30*Inställningar!$C$3/12</f>
-        <v>384.57777777777756</v>
+        <v>380.27955555555582</v>
       </c>
       <c r="E30" s="5">
         <f t="shared" si="2"/>
-        <v>3217.911111111111</v>
+        <v>3181.9462222222223</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1171,19 +1172,19 @@
       </c>
       <c r="B31" s="5">
         <f t="shared" si="1"/>
-        <v>87833.333333333285</v>
+        <v>86851.666666666715</v>
       </c>
       <c r="C31" s="5">
         <f>IF(B31&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2833.3333333333335</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D31" s="5">
         <f>B31*Inställningar!$C$3/12</f>
-        <v>372.55972222222204</v>
+        <v>368.39581944444467</v>
       </c>
       <c r="E31" s="5">
         <f t="shared" si="2"/>
-        <v>3205.8930555555553</v>
+        <v>3170.062486111111</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1192,19 +1193,19 @@
       </c>
       <c r="B32" s="5">
         <f t="shared" si="1"/>
-        <v>84999.999999999956</v>
+        <v>84050.000000000044</v>
       </c>
       <c r="C32" s="5">
         <f>IF(B32&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2833.3333333333335</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D32" s="5">
         <f>B32*Inställningar!$C$3/12</f>
-        <v>360.54166666666652</v>
+        <v>356.51208333333352</v>
       </c>
       <c r="E32" s="5">
         <f t="shared" si="2"/>
-        <v>3193.875</v>
+        <v>3158.17875</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1213,19 +1214,19 @@
       </c>
       <c r="B33" s="5">
         <f t="shared" si="1"/>
-        <v>82166.666666666628</v>
+        <v>81248.333333333372</v>
       </c>
       <c r="C33" s="5">
         <f>IF(B33&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2833.3333333333335</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D33" s="5">
         <f>B33*Inställningar!$C$3/12</f>
-        <v>348.52361111111094</v>
+        <v>344.62834722222237</v>
       </c>
       <c r="E33" s="5">
         <f t="shared" si="2"/>
-        <v>3181.8569444444443</v>
+        <v>3146.2950138888891</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1234,19 +1235,19 @@
       </c>
       <c r="B34" s="5">
         <f t="shared" si="1"/>
-        <v>79333.333333333299</v>
+        <v>78446.666666666701</v>
       </c>
       <c r="C34" s="5">
         <f>IF(B34&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2833.3333333333335</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D34" s="5">
         <f>B34*Inställningar!$C$3/12</f>
-        <v>336.50555555555542</v>
+        <v>332.74461111111128</v>
       </c>
       <c r="E34" s="5">
         <f t="shared" si="2"/>
-        <v>3169.838888888889</v>
+        <v>3134.4112777777777</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1255,19 +1256,19 @@
       </c>
       <c r="B35" s="5">
         <f t="shared" si="1"/>
-        <v>76499.999999999971</v>
+        <v>75645.000000000029</v>
       </c>
       <c r="C35" s="5">
         <f>IF(B35&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2833.3333333333335</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D35" s="5">
         <f>B35*Inställningar!$C$3/12</f>
-        <v>324.4874999999999</v>
+        <v>320.86087500000014</v>
       </c>
       <c r="E35" s="5">
         <f t="shared" si="2"/>
-        <v>3157.8208333333332</v>
+        <v>3122.5275416666668</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1276,19 +1277,19 @@
       </c>
       <c r="B36" s="5">
         <f t="shared" si="1"/>
-        <v>73666.666666666642</v>
+        <v>72843.333333333358</v>
       </c>
       <c r="C36" s="5">
         <f>IF(B36&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2833.3333333333335</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D36" s="5">
         <f>B36*Inställningar!$C$3/12</f>
-        <v>312.46944444444438</v>
+        <v>308.97713888888899</v>
       </c>
       <c r="E36" s="5">
         <f t="shared" si="2"/>
-        <v>3145.8027777777779</v>
+        <v>3110.6438055555554</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1297,19 +1298,19 @@
       </c>
       <c r="B37" s="5">
         <f t="shared" si="1"/>
-        <v>70833.333333333314</v>
+        <v>70041.666666666686</v>
       </c>
       <c r="C37" s="5">
         <f>IF(B37&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2833.3333333333335</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D37" s="5">
         <f>B37*Inställningar!$C$3/12</f>
-        <v>300.4513888888888</v>
+        <v>297.09340277777784</v>
       </c>
       <c r="E37" s="5">
         <f t="shared" si="2"/>
-        <v>3133.7847222222222</v>
+        <v>3098.7600694444445</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1318,19 +1319,19 @@
       </c>
       <c r="B38" s="5">
         <f t="shared" si="1"/>
-        <v>67999.999999999985</v>
+        <v>67240.000000000015</v>
       </c>
       <c r="C38" s="5">
         <f>IF(B38&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2833.3333333333335</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D38" s="5">
         <f>B38*Inställningar!$C$3/12</f>
-        <v>288.43333333333328</v>
+        <v>285.20966666666675</v>
       </c>
       <c r="E38" s="5">
         <f t="shared" si="2"/>
-        <v>3121.7666666666669</v>
+        <v>3086.8763333333332</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1339,19 +1340,19 @@
       </c>
       <c r="B39" s="5">
         <f t="shared" si="1"/>
-        <v>65166.66666666665</v>
+        <v>64438.33333333335</v>
       </c>
       <c r="C39" s="5">
         <f>IF(B39&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2833.3333333333335</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D39" s="5">
         <f>B39*Inställningar!$C$3/12</f>
-        <v>276.4152777777777</v>
+        <v>273.32593055555566</v>
       </c>
       <c r="E39" s="5">
         <f t="shared" si="2"/>
-        <v>3109.7486111111111</v>
+        <v>3074.9925972222222</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1360,19 +1361,19 @@
       </c>
       <c r="B40" s="5">
         <f t="shared" si="1"/>
-        <v>62333.333333333314</v>
+        <v>61636.666666666686</v>
       </c>
       <c r="C40" s="5">
         <f>IF(B40&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2833.3333333333335</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D40" s="5">
         <f>B40*Inställningar!$C$3/12</f>
-        <v>264.39722222222213</v>
+        <v>261.44219444444451</v>
       </c>
       <c r="E40" s="5">
         <f t="shared" si="2"/>
-        <v>3097.7305555555558</v>
+        <v>3063.1088611111109</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1381,19 +1382,19 @@
       </c>
       <c r="B41" s="5">
         <f t="shared" si="1"/>
-        <v>59499.999999999978</v>
+        <v>58835.000000000022</v>
       </c>
       <c r="C41" s="5">
         <f>IF(B41&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2833.3333333333335</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D41" s="5">
         <f>B41*Inställningar!$C$3/12</f>
-        <v>252.37916666666658</v>
+        <v>249.55845833333342</v>
       </c>
       <c r="E41" s="5">
         <f t="shared" si="2"/>
-        <v>3085.7125000000001</v>
+        <v>3051.2251249999999</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1402,19 +1403,19 @@
       </c>
       <c r="B42" s="5">
         <f t="shared" si="1"/>
-        <v>56666.666666666642</v>
+        <v>56033.333333333358</v>
       </c>
       <c r="C42" s="5">
         <f>IF(B42&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2833.3333333333335</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D42" s="5">
         <f>B42*Inställningar!$C$3/12</f>
-        <v>240.361111111111</v>
+        <v>237.67472222222236</v>
       </c>
       <c r="E42" s="5">
         <f t="shared" si="2"/>
-        <v>3073.6944444444443</v>
+        <v>3039.341388888889</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1423,19 +1424,19 @@
       </c>
       <c r="B43" s="5">
         <f t="shared" si="1"/>
-        <v>53833.333333333307</v>
+        <v>53231.666666666693</v>
       </c>
       <c r="C43" s="5">
         <f>IF(B43&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2833.3333333333335</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D43" s="5">
         <f>B43*Inställningar!$C$3/12</f>
-        <v>228.34305555555545</v>
+        <v>225.79098611111124</v>
       </c>
       <c r="E43" s="5">
         <f t="shared" si="2"/>
-        <v>3061.6763888888891</v>
+        <v>3027.4576527777776</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1444,19 +1445,19 @@
       </c>
       <c r="B44" s="5">
         <f t="shared" si="1"/>
-        <v>50999.999999999971</v>
+        <v>50430.000000000029</v>
       </c>
       <c r="C44" s="5">
         <f>IF(B44&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2833.3333333333335</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D44" s="5">
         <f>B44*Inställningar!$C$3/12</f>
-        <v>216.3249999999999</v>
+        <v>213.90725000000012</v>
       </c>
       <c r="E44" s="5">
         <f t="shared" si="2"/>
-        <v>3049.6583333333333</v>
+        <v>3015.5739166666667</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1465,19 +1466,19 @@
       </c>
       <c r="B45" s="5">
         <f t="shared" si="1"/>
-        <v>48166.666666666635</v>
+        <v>47628.333333333365</v>
       </c>
       <c r="C45" s="5">
         <f>IF(B45&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2833.3333333333335</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D45" s="5">
         <f>B45*Inställningar!$C$3/12</f>
-        <v>204.3069444444443</v>
+        <v>202.02351388888903</v>
       </c>
       <c r="E45" s="5">
         <f t="shared" si="2"/>
-        <v>3037.6402777777776</v>
+        <v>3003.6901805555553</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1486,19 +1487,19 @@
       </c>
       <c r="B46" s="5">
         <f t="shared" si="1"/>
-        <v>45333.333333333299</v>
+        <v>44826.666666666701</v>
       </c>
       <c r="C46" s="5">
         <f>IF(B46&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2833.3333333333335</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D46" s="5">
         <f>B46*Inställningar!$C$3/12</f>
-        <v>192.28888888888875</v>
+        <v>190.13977777777791</v>
       </c>
       <c r="E46" s="5">
         <f t="shared" si="2"/>
-        <v>3025.6222222222223</v>
+        <v>2991.8064444444444</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1507,19 +1508,19 @@
       </c>
       <c r="B47" s="5">
         <f t="shared" si="1"/>
-        <v>42499.999999999964</v>
+        <v>42025.000000000036</v>
       </c>
       <c r="C47" s="5">
         <f>IF(B47&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2833.3333333333335</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D47" s="5">
         <f>B47*Inställningar!$C$3/12</f>
-        <v>180.27083333333317</v>
+        <v>178.25604166666685</v>
       </c>
       <c r="E47" s="5">
         <f t="shared" si="2"/>
-        <v>3013.6041666666665</v>
+        <v>2979.9227083333335</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1528,19 +1529,19 @@
       </c>
       <c r="B48" s="5">
         <f t="shared" si="1"/>
-        <v>39666.666666666628</v>
+        <v>39223.333333333372</v>
       </c>
       <c r="C48" s="5">
         <f>IF(B48&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2833.3333333333335</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D48" s="5">
         <f>B48*Inställningar!$C$3/12</f>
-        <v>168.25277777777762</v>
+        <v>166.37230555555573</v>
       </c>
       <c r="E48" s="5">
         <f t="shared" si="2"/>
-        <v>3001.5861111111112</v>
+        <v>2968.0389722222221</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1549,19 +1550,19 @@
       </c>
       <c r="B49" s="5">
         <f t="shared" si="1"/>
-        <v>36833.333333333292</v>
+        <v>36421.666666666708</v>
       </c>
       <c r="C49" s="5">
         <f>IF(B49&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2833.3333333333335</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D49" s="5">
         <f>B49*Inställningar!$C$3/12</f>
-        <v>156.23472222222205</v>
+        <v>154.48856944444461</v>
       </c>
       <c r="E49" s="5">
         <f t="shared" si="2"/>
-        <v>2989.5680555555555</v>
+        <v>2956.1552361111112</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1570,19 +1571,19 @@
       </c>
       <c r="B50" s="5">
         <f t="shared" si="1"/>
-        <v>33999.999999999956</v>
+        <v>33620.000000000044</v>
       </c>
       <c r="C50" s="5">
         <f>IF(B50&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2833.3333333333335</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D50" s="5">
         <f>B50*Inställningar!$C$3/12</f>
-        <v>144.2166666666665</v>
+        <v>142.60483333333352</v>
       </c>
       <c r="E50" s="5">
         <f t="shared" si="2"/>
-        <v>2977.55</v>
+        <v>2944.2714999999998</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1591,19 +1592,19 @@
       </c>
       <c r="B51" s="5">
         <f t="shared" si="1"/>
-        <v>31166.666666666624</v>
+        <v>30818.333333333376</v>
       </c>
       <c r="C51" s="5">
         <f>IF(B51&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2833.3333333333335</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D51" s="5">
         <f>B51*Inställningar!$C$3/12</f>
-        <v>132.19861111111092</v>
+        <v>130.7210972222224</v>
       </c>
       <c r="E51" s="5">
         <f t="shared" si="2"/>
-        <v>2965.5319444444444</v>
+        <v>2932.3877638888889</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1612,19 +1613,19 @@
       </c>
       <c r="B52" s="5">
         <f t="shared" si="1"/>
-        <v>28333.333333333292</v>
+        <v>28016.666666666708</v>
       </c>
       <c r="C52" s="5">
         <f>IF(B52&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2833.3333333333335</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D52" s="5">
         <f>B52*Inställningar!$C$3/12</f>
-        <v>120.18055555555539</v>
+        <v>118.83736111111129</v>
       </c>
       <c r="E52" s="5">
         <f t="shared" si="2"/>
-        <v>2953.5138888888887</v>
+        <v>2920.504027777778</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1633,19 +1634,19 @@
       </c>
       <c r="B53" s="5">
         <f t="shared" si="1"/>
-        <v>25499.99999999996</v>
+        <v>25215.00000000004</v>
       </c>
       <c r="C53" s="5">
         <f>IF(B53&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2833.3333333333335</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D53" s="5">
         <f>B53*Inställningar!$C$3/12</f>
-        <v>108.16249999999984</v>
+        <v>106.95362500000017</v>
       </c>
       <c r="E53" s="5">
         <f t="shared" si="2"/>
-        <v>2941.4958333333334</v>
+        <v>2908.6202916666666</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1654,19 +1655,19 @@
       </c>
       <c r="B54" s="5">
         <f t="shared" si="1"/>
-        <v>22666.666666666628</v>
+        <v>22413.333333333372</v>
       </c>
       <c r="C54" s="5">
         <f>IF(B54&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2833.3333333333335</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D54" s="5">
         <f>B54*Inställningar!$C$3/12</f>
-        <v>96.144444444444275</v>
+        <v>95.069888888889054</v>
       </c>
       <c r="E54" s="5">
         <f t="shared" si="2"/>
-        <v>2929.4777777777776</v>
+        <v>2896.7365555555557</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1675,19 +1676,19 @@
       </c>
       <c r="B55" s="5">
         <f t="shared" si="1"/>
-        <v>19833.333333333296</v>
+        <v>19611.666666666704</v>
       </c>
       <c r="C55" s="5">
         <f>IF(B55&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2833.3333333333335</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D55" s="5">
         <f>B55*Inställningar!$C$3/12</f>
-        <v>84.126388888888727</v>
+        <v>83.186152777777934</v>
       </c>
       <c r="E55" s="5">
         <f t="shared" si="2"/>
-        <v>2917.4597222222224</v>
+        <v>2884.8528194444443</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1696,19 +1697,19 @@
       </c>
       <c r="B56" s="5">
         <f t="shared" si="1"/>
-        <v>16999.999999999964</v>
+        <v>16810.000000000036</v>
       </c>
       <c r="C56" s="5">
         <f>IF(B56&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2833.3333333333335</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D56" s="5">
         <f>B56*Inställningar!$C$3/12</f>
-        <v>72.108333333333178</v>
+        <v>71.302416666666815</v>
       </c>
       <c r="E56" s="5">
         <f t="shared" si="2"/>
-        <v>2905.4416666666666</v>
+        <v>2872.9690833333334</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1717,19 +1718,19 @@
       </c>
       <c r="B57" s="5">
         <f t="shared" si="1"/>
-        <v>14166.66666666663</v>
+        <v>14008.33333333337</v>
       </c>
       <c r="C57" s="5">
         <f>IF(B57&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2833.3333333333335</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D57" s="5">
         <f>B57*Inställningar!$C$3/12</f>
-        <v>60.090277777777622</v>
+        <v>59.41868055555571</v>
       </c>
       <c r="E57" s="5">
         <f t="shared" si="2"/>
-        <v>2893.4236111111113</v>
+        <v>2861.085347222222</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1738,19 +1739,19 @@
       </c>
       <c r="B58" s="5">
         <f t="shared" si="1"/>
-        <v>11333.333333333296</v>
+        <v>11206.666666666704</v>
       </c>
       <c r="C58" s="5">
         <f>IF(B58&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2833.3333333333335</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D58" s="5">
         <f>B58*Inställningar!$C$3/12</f>
-        <v>48.072222222222059</v>
+        <v>47.534944444444598</v>
       </c>
       <c r="E58" s="5">
         <f t="shared" si="2"/>
-        <v>2881.4055555555556</v>
+        <v>2849.2016111111111</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1759,19 +1760,19 @@
       </c>
       <c r="B59" s="5">
         <f t="shared" si="1"/>
-        <v>8499.9999999999618</v>
+        <v>8405.0000000000382</v>
       </c>
       <c r="C59" s="5">
         <f>IF(B59&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2833.3333333333335</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D59" s="5">
         <f>B59*Inställningar!$C$3/12</f>
-        <v>36.054166666666504</v>
+        <v>35.651208333333493</v>
       </c>
       <c r="E59" s="5">
         <f t="shared" si="2"/>
-        <v>2869.3874999999998</v>
+        <v>2837.3178750000002</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1780,19 +1781,19 @@
       </c>
       <c r="B60" s="5">
         <f t="shared" si="1"/>
-        <v>5666.6666666666279</v>
+        <v>5603.3333333333721</v>
       </c>
       <c r="C60" s="5">
         <f>IF(B60&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2833.3333333333335</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D60" s="5">
         <f>B60*Inställningar!$C$3/12</f>
-        <v>24.036111111110944</v>
+        <v>23.767472222222384</v>
       </c>
       <c r="E60" s="5">
         <f t="shared" si="2"/>
-        <v>2857.3694444444445</v>
+        <v>2825.4341388888888</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1801,19 +1802,19 @@
       </c>
       <c r="B61" s="5">
         <f t="shared" si="1"/>
-        <v>2833.3333333332944</v>
+        <v>2801.6666666667056</v>
       </c>
       <c r="C61" s="5">
         <f>IF(B61&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2833.3333333333335</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D61" s="5">
         <f>B61*Inställningar!$C$3/12</f>
-        <v>12.018055555555391</v>
+        <v>11.883736111111276</v>
       </c>
       <c r="E61" s="5">
         <f t="shared" si="2"/>
-        <v>2845.3513888888888</v>
+        <v>2813.5504027777779</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1822,19 +1823,19 @@
       </c>
       <c r="B62" s="5">
         <f t="shared" si="1"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>3.9108272176235914E-11</v>
       </c>
       <c r="C62" s="5">
         <f>IF(B62&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>0</v>
+        <v>2801.6666666666665</v>
       </c>
       <c r="D62" s="5">
         <f>B62*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>1.6588425448086732E-13</v>
       </c>
       <c r="E62" s="5">
         <f t="shared" si="2"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>2801.6666666666665</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1843,7 +1844,7 @@
       </c>
       <c r="B63" s="5">
         <f t="shared" si="1"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C63" s="5">
         <f>IF(B63&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -1851,11 +1852,11 @@
       </c>
       <c r="D63" s="5">
         <f>B63*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E63" s="5">
         <f t="shared" si="2"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1864,7 +1865,7 @@
       </c>
       <c r="B64" s="5">
         <f t="shared" si="1"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C64" s="5">
         <f>IF(B64&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -1872,11 +1873,11 @@
       </c>
       <c r="D64" s="5">
         <f>B64*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E64" s="5">
         <f t="shared" si="2"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1885,7 +1886,7 @@
       </c>
       <c r="B65" s="5">
         <f t="shared" si="1"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C65" s="5">
         <f>IF(B65&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -1893,11 +1894,11 @@
       </c>
       <c r="D65" s="5">
         <f>B65*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E65" s="5">
         <f t="shared" si="2"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1906,7 +1907,7 @@
       </c>
       <c r="B66" s="5">
         <f t="shared" si="1"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C66" s="5">
         <f>IF(B66&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -1914,11 +1915,11 @@
       </c>
       <c r="D66" s="5">
         <f>B66*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E66" s="5">
         <f t="shared" si="2"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1927,7 +1928,7 @@
       </c>
       <c r="B67" s="5">
         <f t="shared" si="1"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C67" s="5">
         <f>IF(B67&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -1935,11 +1936,11 @@
       </c>
       <c r="D67" s="5">
         <f>B67*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E67" s="5">
         <f t="shared" si="2"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1948,7 +1949,7 @@
       </c>
       <c r="B68" s="5">
         <f t="shared" ref="B68:B131" si="3">B67-C67</f>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C68" s="5">
         <f>IF(B68&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -1956,11 +1957,11 @@
       </c>
       <c r="D68" s="5">
         <f>B68*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E68" s="5">
         <f t="shared" ref="E68:E131" si="4">SUM(C68:D68)</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1969,7 +1970,7 @@
       </c>
       <c r="B69" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C69" s="5">
         <f>IF(B69&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -1977,11 +1978,11 @@
       </c>
       <c r="D69" s="5">
         <f>B69*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E69" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1990,7 +1991,7 @@
       </c>
       <c r="B70" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C70" s="5">
         <f>IF(B70&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -1998,11 +1999,11 @@
       </c>
       <c r="D70" s="5">
         <f>B70*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E70" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2011,7 +2012,7 @@
       </c>
       <c r="B71" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C71" s="5">
         <f>IF(B71&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2019,11 +2020,11 @@
       </c>
       <c r="D71" s="5">
         <f>B71*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E71" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2032,7 +2033,7 @@
       </c>
       <c r="B72" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C72" s="5">
         <f>IF(B72&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2040,11 +2041,11 @@
       </c>
       <c r="D72" s="5">
         <f>B72*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E72" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2053,7 +2054,7 @@
       </c>
       <c r="B73" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C73" s="5">
         <f>IF(B73&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2061,11 +2062,11 @@
       </c>
       <c r="D73" s="5">
         <f>B73*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E73" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2074,7 +2075,7 @@
       </c>
       <c r="B74" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C74" s="5">
         <f>IF(B74&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2082,11 +2083,11 @@
       </c>
       <c r="D74" s="5">
         <f>B74*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E74" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2095,7 +2096,7 @@
       </c>
       <c r="B75" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C75" s="5">
         <f>IF(B75&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2103,11 +2104,11 @@
       </c>
       <c r="D75" s="5">
         <f>B75*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E75" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2116,7 +2117,7 @@
       </c>
       <c r="B76" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C76" s="5">
         <f>IF(B76&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2124,11 +2125,11 @@
       </c>
       <c r="D76" s="5">
         <f>B76*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E76" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2137,7 +2138,7 @@
       </c>
       <c r="B77" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C77" s="5">
         <f>IF(B77&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2145,11 +2146,11 @@
       </c>
       <c r="D77" s="5">
         <f>B77*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E77" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2158,7 +2159,7 @@
       </c>
       <c r="B78" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C78" s="5">
         <f>IF(B78&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2166,11 +2167,11 @@
       </c>
       <c r="D78" s="5">
         <f>B78*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E78" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2179,7 +2180,7 @@
       </c>
       <c r="B79" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C79" s="5">
         <f>IF(B79&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2187,11 +2188,11 @@
       </c>
       <c r="D79" s="5">
         <f>B79*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E79" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2200,7 +2201,7 @@
       </c>
       <c r="B80" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C80" s="5">
         <f>IF(B80&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2208,11 +2209,11 @@
       </c>
       <c r="D80" s="5">
         <f>B80*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E80" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2221,7 +2222,7 @@
       </c>
       <c r="B81" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C81" s="5">
         <f>IF(B81&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2229,11 +2230,11 @@
       </c>
       <c r="D81" s="5">
         <f>B81*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E81" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2242,7 +2243,7 @@
       </c>
       <c r="B82" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C82" s="5">
         <f>IF(B82&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2250,11 +2251,11 @@
       </c>
       <c r="D82" s="5">
         <f>B82*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E82" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2263,7 +2264,7 @@
       </c>
       <c r="B83" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C83" s="5">
         <f>IF(B83&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2271,11 +2272,11 @@
       </c>
       <c r="D83" s="5">
         <f>B83*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E83" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2284,7 +2285,7 @@
       </c>
       <c r="B84" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C84" s="5">
         <f>IF(B84&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2292,11 +2293,11 @@
       </c>
       <c r="D84" s="5">
         <f>B84*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E84" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2305,7 +2306,7 @@
       </c>
       <c r="B85" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C85" s="5">
         <f>IF(B85&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2313,11 +2314,11 @@
       </c>
       <c r="D85" s="5">
         <f>B85*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E85" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2326,7 +2327,7 @@
       </c>
       <c r="B86" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C86" s="5">
         <f>IF(B86&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2334,11 +2335,11 @@
       </c>
       <c r="D86" s="5">
         <f>B86*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E86" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2347,7 +2348,7 @@
       </c>
       <c r="B87" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C87" s="5">
         <f>IF(B87&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2355,11 +2356,11 @@
       </c>
       <c r="D87" s="5">
         <f>B87*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E87" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2368,7 +2369,7 @@
       </c>
       <c r="B88" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C88" s="5">
         <f>IF(B88&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2376,11 +2377,11 @@
       </c>
       <c r="D88" s="5">
         <f>B88*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E88" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2389,7 +2390,7 @@
       </c>
       <c r="B89" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C89" s="5">
         <f>IF(B89&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2397,11 +2398,11 @@
       </c>
       <c r="D89" s="5">
         <f>B89*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E89" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2410,7 +2411,7 @@
       </c>
       <c r="B90" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C90" s="5">
         <f>IF(B90&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2418,11 +2419,11 @@
       </c>
       <c r="D90" s="5">
         <f>B90*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E90" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2431,7 +2432,7 @@
       </c>
       <c r="B91" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C91" s="5">
         <f>IF(B91&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2439,11 +2440,11 @@
       </c>
       <c r="D91" s="5">
         <f>B91*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E91" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2452,7 +2453,7 @@
       </c>
       <c r="B92" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C92" s="5">
         <f>IF(B92&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2460,11 +2461,11 @@
       </c>
       <c r="D92" s="5">
         <f>B92*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E92" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2473,7 +2474,7 @@
       </c>
       <c r="B93" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C93" s="5">
         <f>IF(B93&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2481,11 +2482,11 @@
       </c>
       <c r="D93" s="5">
         <f>B93*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E93" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2494,7 +2495,7 @@
       </c>
       <c r="B94" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C94" s="5">
         <f>IF(B94&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2502,11 +2503,11 @@
       </c>
       <c r="D94" s="5">
         <f>B94*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E94" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2515,7 +2516,7 @@
       </c>
       <c r="B95" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C95" s="5">
         <f>IF(B95&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2523,11 +2524,11 @@
       </c>
       <c r="D95" s="5">
         <f>B95*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E95" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2536,7 +2537,7 @@
       </c>
       <c r="B96" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C96" s="5">
         <f>IF(B96&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2544,11 +2545,11 @@
       </c>
       <c r="D96" s="5">
         <f>B96*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E96" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2557,7 +2558,7 @@
       </c>
       <c r="B97" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C97" s="5">
         <f>IF(B97&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2565,11 +2566,11 @@
       </c>
       <c r="D97" s="5">
         <f>B97*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E97" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2578,7 +2579,7 @@
       </c>
       <c r="B98" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C98" s="5">
         <f>IF(B98&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2586,11 +2587,11 @@
       </c>
       <c r="D98" s="5">
         <f>B98*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E98" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2599,7 +2600,7 @@
       </c>
       <c r="B99" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C99" s="5">
         <f>IF(B99&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2607,11 +2608,11 @@
       </c>
       <c r="D99" s="5">
         <f>B99*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E99" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2620,7 +2621,7 @@
       </c>
       <c r="B100" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C100" s="5">
         <f>IF(B100&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2628,11 +2629,11 @@
       </c>
       <c r="D100" s="5">
         <f>B100*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E100" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2641,7 +2642,7 @@
       </c>
       <c r="B101" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C101" s="5">
         <f>IF(B101&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2649,11 +2650,11 @@
       </c>
       <c r="D101" s="5">
         <f>B101*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E101" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2662,7 +2663,7 @@
       </c>
       <c r="B102" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C102" s="5">
         <f>IF(B102&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2670,11 +2671,11 @@
       </c>
       <c r="D102" s="5">
         <f>B102*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E102" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2683,7 +2684,7 @@
       </c>
       <c r="B103" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C103" s="5">
         <f>IF(B103&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2691,11 +2692,11 @@
       </c>
       <c r="D103" s="5">
         <f>B103*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E103" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2704,7 +2705,7 @@
       </c>
       <c r="B104" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C104" s="5">
         <f>IF(B104&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2712,11 +2713,11 @@
       </c>
       <c r="D104" s="5">
         <f>B104*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E104" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2725,7 +2726,7 @@
       </c>
       <c r="B105" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C105" s="5">
         <f>IF(B105&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2733,11 +2734,11 @@
       </c>
       <c r="D105" s="5">
         <f>B105*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E105" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2746,7 +2747,7 @@
       </c>
       <c r="B106" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C106" s="5">
         <f>IF(B106&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2754,11 +2755,11 @@
       </c>
       <c r="D106" s="5">
         <f>B106*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E106" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2767,7 +2768,7 @@
       </c>
       <c r="B107" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C107" s="5">
         <f>IF(B107&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2775,11 +2776,11 @@
       </c>
       <c r="D107" s="5">
         <f>B107*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E107" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2788,7 +2789,7 @@
       </c>
       <c r="B108" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C108" s="5">
         <f>IF(B108&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2796,11 +2797,11 @@
       </c>
       <c r="D108" s="5">
         <f>B108*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E108" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2809,7 +2810,7 @@
       </c>
       <c r="B109" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C109" s="5">
         <f>IF(B109&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2817,11 +2818,11 @@
       </c>
       <c r="D109" s="5">
         <f>B109*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E109" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2830,7 +2831,7 @@
       </c>
       <c r="B110" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C110" s="5">
         <f>IF(B110&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2838,11 +2839,11 @@
       </c>
       <c r="D110" s="5">
         <f>B110*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E110" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2851,7 +2852,7 @@
       </c>
       <c r="B111" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C111" s="5">
         <f>IF(B111&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2859,11 +2860,11 @@
       </c>
       <c r="D111" s="5">
         <f>B111*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E111" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2872,7 +2873,7 @@
       </c>
       <c r="B112" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C112" s="5">
         <f>IF(B112&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2880,11 +2881,11 @@
       </c>
       <c r="D112" s="5">
         <f>B112*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E112" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2893,7 +2894,7 @@
       </c>
       <c r="B113" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C113" s="5">
         <f>IF(B113&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2901,11 +2902,11 @@
       </c>
       <c r="D113" s="5">
         <f>B113*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E113" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2914,7 +2915,7 @@
       </c>
       <c r="B114" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C114" s="5">
         <f>IF(B114&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2922,11 +2923,11 @@
       </c>
       <c r="D114" s="5">
         <f>B114*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E114" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2935,7 +2936,7 @@
       </c>
       <c r="B115" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C115" s="5">
         <f>IF(B115&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2943,11 +2944,11 @@
       </c>
       <c r="D115" s="5">
         <f>B115*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E115" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2956,7 +2957,7 @@
       </c>
       <c r="B116" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C116" s="5">
         <f>IF(B116&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2964,11 +2965,11 @@
       </c>
       <c r="D116" s="5">
         <f>B116*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E116" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2977,7 +2978,7 @@
       </c>
       <c r="B117" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C117" s="5">
         <f>IF(B117&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2985,11 +2986,11 @@
       </c>
       <c r="D117" s="5">
         <f>B117*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E117" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2998,7 +2999,7 @@
       </c>
       <c r="B118" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C118" s="5">
         <f>IF(B118&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3006,11 +3007,11 @@
       </c>
       <c r="D118" s="5">
         <f>B118*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E118" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3019,7 +3020,7 @@
       </c>
       <c r="B119" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C119" s="5">
         <f>IF(B119&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3027,11 +3028,11 @@
       </c>
       <c r="D119" s="5">
         <f>B119*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E119" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3040,7 +3041,7 @@
       </c>
       <c r="B120" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C120" s="5">
         <f>IF(B120&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3048,11 +3049,11 @@
       </c>
       <c r="D120" s="5">
         <f>B120*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E120" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3061,7 +3062,7 @@
       </c>
       <c r="B121" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C121" s="5">
         <f>IF(B121&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3069,11 +3070,11 @@
       </c>
       <c r="D121" s="5">
         <f>B121*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E121" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3082,7 +3083,7 @@
       </c>
       <c r="B122" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C122" s="5">
         <f>IF(B122&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3090,11 +3091,11 @@
       </c>
       <c r="D122" s="5">
         <f>B122*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E122" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3103,7 +3104,7 @@
       </c>
       <c r="B123" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C123" s="5">
         <f>IF(B123&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3111,11 +3112,11 @@
       </c>
       <c r="D123" s="5">
         <f>B123*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E123" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3124,7 +3125,7 @@
       </c>
       <c r="B124" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C124" s="5">
         <f>IF(B124&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3132,11 +3133,11 @@
       </c>
       <c r="D124" s="5">
         <f>B124*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E124" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3145,7 +3146,7 @@
       </c>
       <c r="B125" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C125" s="5">
         <f>IF(B125&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3153,11 +3154,11 @@
       </c>
       <c r="D125" s="5">
         <f>B125*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E125" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3166,7 +3167,7 @@
       </c>
       <c r="B126" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C126" s="5">
         <f>IF(B126&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3174,11 +3175,11 @@
       </c>
       <c r="D126" s="5">
         <f>B126*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E126" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3187,7 +3188,7 @@
       </c>
       <c r="B127" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C127" s="5">
         <f>IF(B127&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3195,11 +3196,11 @@
       </c>
       <c r="D127" s="5">
         <f>B127*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E127" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3208,7 +3209,7 @@
       </c>
       <c r="B128" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C128" s="5">
         <f>IF(B128&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3216,11 +3217,11 @@
       </c>
       <c r="D128" s="5">
         <f>B128*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E128" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3229,7 +3230,7 @@
       </c>
       <c r="B129" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C129" s="5">
         <f>IF(B129&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3237,11 +3238,11 @@
       </c>
       <c r="D129" s="5">
         <f>B129*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E129" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3250,7 +3251,7 @@
       </c>
       <c r="B130" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C130" s="5">
         <f>IF(B130&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3258,11 +3259,11 @@
       </c>
       <c r="D130" s="5">
         <f>B130*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E130" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3271,7 +3272,7 @@
       </c>
       <c r="B131" s="5">
         <f t="shared" si="3"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C131" s="5">
         <f>IF(B131&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3279,11 +3280,11 @@
       </c>
       <c r="D131" s="5">
         <f>B131*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E131" s="5">
         <f t="shared" si="4"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3292,7 +3293,7 @@
       </c>
       <c r="B132" s="5">
         <f t="shared" ref="B132:B167" si="5">B131-C131</f>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C132" s="5">
         <f>IF(B132&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3300,11 +3301,11 @@
       </c>
       <c r="D132" s="5">
         <f>B132*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E132" s="5">
         <f t="shared" ref="E132:E167" si="6">SUM(C132:D132)</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3313,7 +3314,7 @@
       </c>
       <c r="B133" s="5">
         <f t="shared" si="5"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C133" s="5">
         <f>IF(B133&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3321,11 +3322,11 @@
       </c>
       <c r="D133" s="5">
         <f>B133*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E133" s="5">
         <f t="shared" si="6"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3334,7 +3335,7 @@
       </c>
       <c r="B134" s="5">
         <f t="shared" si="5"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C134" s="5">
         <f>IF(B134&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3342,11 +3343,11 @@
       </c>
       <c r="D134" s="5">
         <f>B134*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E134" s="5">
         <f t="shared" si="6"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3355,7 +3356,7 @@
       </c>
       <c r="B135" s="5">
         <f t="shared" si="5"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C135" s="5">
         <f>IF(B135&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3363,11 +3364,11 @@
       </c>
       <c r="D135" s="5">
         <f>B135*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E135" s="5">
         <f t="shared" si="6"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3376,7 +3377,7 @@
       </c>
       <c r="B136" s="5">
         <f t="shared" si="5"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C136" s="5">
         <f>IF(B136&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3384,11 +3385,11 @@
       </c>
       <c r="D136" s="5">
         <f>B136*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E136" s="5">
         <f t="shared" si="6"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3397,7 +3398,7 @@
       </c>
       <c r="B137" s="5">
         <f t="shared" si="5"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C137" s="5">
         <f>IF(B137&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3405,11 +3406,11 @@
       </c>
       <c r="D137" s="5">
         <f>B137*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E137" s="5">
         <f t="shared" si="6"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3418,7 +3419,7 @@
       </c>
       <c r="B138" s="5">
         <f t="shared" si="5"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C138" s="5">
         <f>IF(B138&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3426,11 +3427,11 @@
       </c>
       <c r="D138" s="5">
         <f>B138*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E138" s="5">
         <f t="shared" si="6"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3439,7 +3440,7 @@
       </c>
       <c r="B139" s="5">
         <f t="shared" si="5"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C139" s="5">
         <f>IF(B139&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3447,11 +3448,11 @@
       </c>
       <c r="D139" s="5">
         <f>B139*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E139" s="5">
         <f t="shared" si="6"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3460,7 +3461,7 @@
       </c>
       <c r="B140" s="5">
         <f t="shared" si="5"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C140" s="5">
         <f>IF(B140&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3468,11 +3469,11 @@
       </c>
       <c r="D140" s="5">
         <f>B140*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E140" s="5">
         <f t="shared" si="6"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3481,7 +3482,7 @@
       </c>
       <c r="B141" s="5">
         <f t="shared" si="5"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C141" s="5">
         <f>IF(B141&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3489,11 +3490,11 @@
       </c>
       <c r="D141" s="5">
         <f>B141*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E141" s="5">
         <f t="shared" si="6"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3502,7 +3503,7 @@
       </c>
       <c r="B142" s="5">
         <f t="shared" si="5"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C142" s="5">
         <f>IF(B142&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3510,11 +3511,11 @@
       </c>
       <c r="D142" s="5">
         <f>B142*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E142" s="5">
         <f t="shared" si="6"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3523,7 +3524,7 @@
       </c>
       <c r="B143" s="5">
         <f t="shared" si="5"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C143" s="5">
         <f>IF(B143&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3531,11 +3532,11 @@
       </c>
       <c r="D143" s="5">
         <f>B143*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E143" s="5">
         <f t="shared" si="6"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3544,7 +3545,7 @@
       </c>
       <c r="B144" s="5">
         <f t="shared" si="5"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C144" s="5">
         <f>IF(B144&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3552,11 +3553,11 @@
       </c>
       <c r="D144" s="5">
         <f>B144*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E144" s="5">
         <f t="shared" si="6"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3565,7 +3566,7 @@
       </c>
       <c r="B145" s="5">
         <f t="shared" si="5"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C145" s="5">
         <f>IF(B145&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3573,11 +3574,11 @@
       </c>
       <c r="D145" s="5">
         <f>B145*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E145" s="5">
         <f t="shared" si="6"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3586,7 +3587,7 @@
       </c>
       <c r="B146" s="5">
         <f t="shared" si="5"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C146" s="5">
         <f>IF(B146&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3594,11 +3595,11 @@
       </c>
       <c r="D146" s="5">
         <f>B146*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E146" s="5">
         <f t="shared" si="6"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3607,7 +3608,7 @@
       </c>
       <c r="B147" s="5">
         <f t="shared" si="5"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C147" s="5">
         <f>IF(B147&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3615,11 +3616,11 @@
       </c>
       <c r="D147" s="5">
         <f>B147*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E147" s="5">
         <f t="shared" si="6"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3628,7 +3629,7 @@
       </c>
       <c r="B148" s="5">
         <f t="shared" si="5"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C148" s="5">
         <f>IF(B148&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3636,11 +3637,11 @@
       </c>
       <c r="D148" s="5">
         <f>B148*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E148" s="5">
         <f t="shared" si="6"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3649,7 +3650,7 @@
       </c>
       <c r="B149" s="5">
         <f t="shared" si="5"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C149" s="5">
         <f>IF(B149&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3657,11 +3658,11 @@
       </c>
       <c r="D149" s="5">
         <f>B149*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E149" s="5">
         <f t="shared" si="6"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3670,7 +3671,7 @@
       </c>
       <c r="B150" s="5">
         <f t="shared" si="5"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C150" s="5">
         <f>IF(B150&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3678,11 +3679,11 @@
       </c>
       <c r="D150" s="5">
         <f>B150*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E150" s="5">
         <f t="shared" si="6"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3691,7 +3692,7 @@
       </c>
       <c r="B151" s="5">
         <f t="shared" si="5"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C151" s="5">
         <f>IF(B151&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3699,11 +3700,11 @@
       </c>
       <c r="D151" s="5">
         <f>B151*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E151" s="5">
         <f t="shared" si="6"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3712,7 +3713,7 @@
       </c>
       <c r="B152" s="5">
         <f t="shared" si="5"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C152" s="5">
         <f>IF(B152&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3720,11 +3721,11 @@
       </c>
       <c r="D152" s="5">
         <f>B152*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E152" s="5">
         <f t="shared" si="6"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3733,7 +3734,7 @@
       </c>
       <c r="B153" s="5">
         <f t="shared" si="5"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C153" s="5">
         <f>IF(B153&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3741,11 +3742,11 @@
       </c>
       <c r="D153" s="5">
         <f>B153*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E153" s="5">
         <f t="shared" si="6"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3754,7 +3755,7 @@
       </c>
       <c r="B154" s="5">
         <f t="shared" si="5"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C154" s="5">
         <f>IF(B154&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3762,11 +3763,11 @@
       </c>
       <c r="D154" s="5">
         <f>B154*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E154" s="5">
         <f t="shared" si="6"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3775,7 +3776,7 @@
       </c>
       <c r="B155" s="5">
         <f t="shared" si="5"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C155" s="5">
         <f>IF(B155&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3783,11 +3784,11 @@
       </c>
       <c r="D155" s="5">
         <f>B155*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E155" s="5">
         <f t="shared" si="6"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3796,7 +3797,7 @@
       </c>
       <c r="B156" s="5">
         <f t="shared" si="5"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C156" s="5">
         <f>IF(B156&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3804,11 +3805,11 @@
       </c>
       <c r="D156" s="5">
         <f>B156*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E156" s="5">
         <f t="shared" si="6"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3817,7 +3818,7 @@
       </c>
       <c r="B157" s="5">
         <f t="shared" si="5"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C157" s="5">
         <f>IF(B157&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3825,11 +3826,11 @@
       </c>
       <c r="D157" s="5">
         <f>B157*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E157" s="5">
         <f t="shared" si="6"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3838,7 +3839,7 @@
       </c>
       <c r="B158" s="5">
         <f t="shared" si="5"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C158" s="5">
         <f>IF(B158&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3846,11 +3847,11 @@
       </c>
       <c r="D158" s="5">
         <f>B158*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E158" s="5">
         <f t="shared" si="6"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3859,7 +3860,7 @@
       </c>
       <c r="B159" s="5">
         <f t="shared" si="5"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C159" s="5">
         <f>IF(B159&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3867,11 +3868,11 @@
       </c>
       <c r="D159" s="5">
         <f>B159*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E159" s="5">
         <f t="shared" si="6"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3880,7 +3881,7 @@
       </c>
       <c r="B160" s="5">
         <f t="shared" si="5"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C160" s="5">
         <f>IF(B160&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3888,11 +3889,11 @@
       </c>
       <c r="D160" s="5">
         <f>B160*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E160" s="5">
         <f t="shared" si="6"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3901,7 +3902,7 @@
       </c>
       <c r="B161" s="5">
         <f t="shared" si="5"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C161" s="5">
         <f>IF(B161&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3909,11 +3910,11 @@
       </c>
       <c r="D161" s="5">
         <f>B161*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E161" s="5">
         <f t="shared" si="6"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3922,7 +3923,7 @@
       </c>
       <c r="B162" s="5">
         <f t="shared" si="5"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C162" s="5">
         <f>IF(B162&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3930,11 +3931,11 @@
       </c>
       <c r="D162" s="5">
         <f>B162*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E162" s="5">
         <f t="shared" si="6"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3943,7 +3944,7 @@
       </c>
       <c r="B163" s="5">
         <f t="shared" si="5"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C163" s="5">
         <f>IF(B163&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3951,11 +3952,11 @@
       </c>
       <c r="D163" s="5">
         <f>B163*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E163" s="5">
         <f t="shared" si="6"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3964,7 +3965,7 @@
       </c>
       <c r="B164" s="5">
         <f t="shared" si="5"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C164" s="5">
         <f>IF(B164&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3972,11 +3973,11 @@
       </c>
       <c r="D164" s="5">
         <f>B164*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E164" s="5">
         <f t="shared" si="6"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3985,7 +3986,7 @@
       </c>
       <c r="B165" s="5">
         <f t="shared" si="5"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C165" s="5">
         <f>IF(B165&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3993,11 +3994,11 @@
       </c>
       <c r="D165" s="5">
         <f>B165*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E165" s="5">
         <f t="shared" si="6"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4006,7 +4007,7 @@
       </c>
       <c r="B166" s="5">
         <f t="shared" si="5"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C166" s="5">
         <f>IF(B166&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -4014,11 +4015,11 @@
       </c>
       <c r="D166" s="5">
         <f>B166*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E166" s="5">
         <f t="shared" si="6"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4027,7 +4028,7 @@
       </c>
       <c r="B167" s="5">
         <f t="shared" si="5"/>
-        <v>-3.9108272176235914E-11</v>
+        <v>-2801.6666666666274</v>
       </c>
       <c r="C167" s="5">
         <f>IF(B167&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -4035,11 +4036,11 @@
       </c>
       <c r="D167" s="5">
         <f>B167*Inställningar!$C$3/12</f>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
       <c r="E167" s="5">
         <f t="shared" si="6"/>
-        <v>-1.6588425448086732E-13</v>
+        <v>-11.883736111110943</v>
       </c>
     </row>
   </sheetData>
@@ -4051,8 +4052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4245,14 +4246,14 @@
       </c>
       <c r="B21">
         <f>Månadsöversikt!E2</f>
-        <v>3554.416666666667</v>
+        <v>3514.6908333333331</v>
       </c>
       <c r="C21" s="8">
         <v>1</v>
       </c>
       <c r="D21">
         <f>B21*C21</f>
-        <v>3554.416666666667</v>
+        <v>3514.6908333333331</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4261,7 +4262,7 @@
       </c>
       <c r="D23" s="6">
         <f>D19-D21</f>
-        <v>7051.5833333333367</v>
+        <v>7091.3091666666705</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/admin/old/lånekalkyler.xlsx
+++ b/trunk/admin/old/lånekalkyler.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="36" windowWidth="8364" windowHeight="1296" activeTab="2"/>
+    <workbookView xWindow="90" yWindow="30" windowWidth="8370" windowHeight="1290" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Inställningar" sheetId="1" r:id="rId1"/>
@@ -179,7 +179,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -466,13 +466,13 @@
   <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.109375" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
@@ -480,8 +480,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <f>142500+25600</f>
-        <v>168100</v>
+        <v>170000</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
@@ -492,7 +491,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="4">
-        <v>5.0900000000000001E-2</v>
+        <v>5.6399999999999999E-2</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -527,17 +526,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E167"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F62" sqref="F62"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="6" customFormat="1">
@@ -563,19 +562,19 @@
       </c>
       <c r="B2" s="5">
         <f>Inställningar!C2</f>
-        <v>168100</v>
+        <v>170000</v>
       </c>
       <c r="C2" s="5">
         <f>Inställningar!$C$2/Inställningar!$C$5</f>
-        <v>2801.6666666666665</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D2" s="5">
         <f>B2*Inställningar!$C$3/12</f>
-        <v>713.0241666666667</v>
+        <v>799</v>
       </c>
       <c r="E2" s="5">
         <f>SUM(C2:D2)</f>
-        <v>3514.6908333333331</v>
+        <v>3632.3333333333335</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -584,19 +583,19 @@
       </c>
       <c r="B3" s="5">
         <f>B2-C2</f>
-        <v>165298.33333333334</v>
+        <v>167166.66666666666</v>
       </c>
       <c r="C3" s="5">
         <f>IF(B3&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2801.6666666666665</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D3" s="5">
         <f>B3*Inställningar!$C$3/12</f>
-        <v>701.14043055555567</v>
+        <v>785.68333333333328</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" ref="E3" si="0">SUM(C3:D3)</f>
-        <v>3502.8070972222222</v>
+        <v>3619.0166666666669</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -605,19 +604,19 @@
       </c>
       <c r="B4" s="5">
         <f t="shared" ref="B4:B67" si="1">B3-C3</f>
-        <v>162496.66666666669</v>
+        <v>164333.33333333331</v>
       </c>
       <c r="C4" s="5">
         <f>IF(B4&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2801.6666666666665</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D4" s="5">
         <f>B4*Inställningar!$C$3/12</f>
-        <v>689.25669444444463</v>
+        <v>772.36666666666645</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ref="E4:E67" si="2">SUM(C4:D4)</f>
-        <v>3490.9233611111113</v>
+        <v>3605.7</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -626,19 +625,19 @@
       </c>
       <c r="B5" s="5">
         <f t="shared" si="1"/>
-        <v>159695.00000000003</v>
+        <v>161499.99999999997</v>
       </c>
       <c r="C5" s="5">
         <f>IF(B5&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2801.6666666666665</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D5" s="5">
         <f>B5*Inställningar!$C$3/12</f>
-        <v>677.37295833333349</v>
+        <v>759.04999999999984</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" si="2"/>
-        <v>3479.0396249999999</v>
+        <v>3592.3833333333332</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -647,19 +646,19 @@
       </c>
       <c r="B6" s="5">
         <f t="shared" si="1"/>
-        <v>156893.33333333337</v>
+        <v>158666.66666666663</v>
       </c>
       <c r="C6" s="5">
         <f>IF(B6&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2801.6666666666665</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D6" s="5">
         <f>B6*Inställningar!$C$3/12</f>
-        <v>665.48922222222234</v>
+        <v>745.73333333333312</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" si="2"/>
-        <v>3467.155888888889</v>
+        <v>3579.0666666666666</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -668,19 +667,19 @@
       </c>
       <c r="B7" s="5">
         <f t="shared" si="1"/>
-        <v>154091.66666666672</v>
+        <v>155833.33333333328</v>
       </c>
       <c r="C7" s="5">
         <f>IF(B7&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2801.6666666666665</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D7" s="5">
         <f>B7*Inställningar!$C$3/12</f>
-        <v>653.6054861111113</v>
+        <v>732.4166666666664</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" si="2"/>
-        <v>3455.2721527777776</v>
+        <v>3565.75</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -689,19 +688,19 @@
       </c>
       <c r="B8" s="5">
         <f t="shared" si="1"/>
-        <v>151290.00000000006</v>
+        <v>152999.99999999994</v>
       </c>
       <c r="C8" s="5">
         <f>IF(B8&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2801.6666666666665</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D8" s="5">
         <f>B8*Inställningar!$C$3/12</f>
-        <v>641.72175000000027</v>
+        <v>719.0999999999998</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="2"/>
-        <v>3443.3884166666667</v>
+        <v>3552.4333333333334</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -710,19 +709,19 @@
       </c>
       <c r="B9" s="5">
         <f t="shared" si="1"/>
-        <v>148488.3333333334</v>
+        <v>150166.6666666666</v>
       </c>
       <c r="C9" s="5">
         <f>IF(B9&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2801.6666666666665</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D9" s="5">
         <f>B9*Inställningar!$C$3/12</f>
-        <v>629.83801388888912</v>
+        <v>705.78333333333296</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" si="2"/>
-        <v>3431.5046805555558</v>
+        <v>3539.1166666666663</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -731,19 +730,19 @@
       </c>
       <c r="B10" s="5">
         <f t="shared" si="1"/>
-        <v>145686.66666666674</v>
+        <v>147333.33333333326</v>
       </c>
       <c r="C10" s="5">
         <f>IF(B10&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2801.6666666666665</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D10" s="5">
         <f>B10*Inställningar!$C$3/12</f>
-        <v>617.95427777777809</v>
+        <v>692.46666666666624</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" si="2"/>
-        <v>3419.6209444444448</v>
+        <v>3525.7999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -752,19 +751,19 @@
       </c>
       <c r="B11" s="5">
         <f t="shared" si="1"/>
-        <v>142885.00000000009</v>
+        <v>144499.99999999991</v>
       </c>
       <c r="C11" s="5">
         <f>IF(B11&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2801.6666666666665</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D11" s="5">
         <f>B11*Inställningar!$C$3/12</f>
-        <v>606.07054166666705</v>
+        <v>679.14999999999952</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" si="2"/>
-        <v>3407.7372083333335</v>
+        <v>3512.4833333333331</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -773,19 +772,19 @@
       </c>
       <c r="B12" s="5">
         <f t="shared" si="1"/>
-        <v>140083.33333333343</v>
+        <v>141666.66666666657</v>
       </c>
       <c r="C12" s="5">
         <f>IF(B12&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2801.6666666666665</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D12" s="5">
         <f>B12*Inställningar!$C$3/12</f>
-        <v>594.18680555555591</v>
+        <v>665.83333333333292</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" si="2"/>
-        <v>3395.8534722222225</v>
+        <v>3499.1666666666665</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -794,19 +793,19 @@
       </c>
       <c r="B13" s="5">
         <f t="shared" si="1"/>
-        <v>137281.66666666677</v>
+        <v>138833.33333333323</v>
       </c>
       <c r="C13" s="5">
         <f>IF(B13&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2801.6666666666665</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D13" s="5">
         <f>B13*Inställningar!$C$3/12</f>
-        <v>582.30306944444487</v>
+        <v>652.51666666666608</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" si="2"/>
-        <v>3383.9697361111112</v>
+        <v>3485.8499999999995</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -815,19 +814,19 @@
       </c>
       <c r="B14" s="5">
         <f t="shared" si="1"/>
-        <v>134480.00000000012</v>
+        <v>135999.99999999988</v>
       </c>
       <c r="C14" s="5">
         <f>IF(B14&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2801.6666666666665</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D14" s="5">
         <f>B14*Inställningar!$C$3/12</f>
-        <v>570.41933333333384</v>
+        <v>639.19999999999948</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" si="2"/>
-        <v>3372.0860000000002</v>
+        <v>3472.5333333333328</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -836,19 +835,19 @@
       </c>
       <c r="B15" s="5">
         <f t="shared" si="1"/>
-        <v>131678.33333333346</v>
+        <v>133166.66666666654</v>
       </c>
       <c r="C15" s="5">
         <f>IF(B15&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2801.6666666666665</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D15" s="5">
         <f>B15*Inställningar!$C$3/12</f>
-        <v>558.53559722222269</v>
+        <v>625.88333333333276</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" si="2"/>
-        <v>3360.2022638888893</v>
+        <v>3459.2166666666662</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -857,19 +856,19 @@
       </c>
       <c r="B16" s="5">
         <f t="shared" si="1"/>
-        <v>128876.66666666679</v>
+        <v>130333.33333333321</v>
       </c>
       <c r="C16" s="5">
         <f>IF(B16&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2801.6666666666665</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D16" s="5">
         <f>B16*Inställningar!$C$3/12</f>
-        <v>546.65186111111166</v>
+        <v>612.56666666666604</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" si="2"/>
-        <v>3348.3185277777784</v>
+        <v>3445.8999999999996</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -878,19 +877,19 @@
       </c>
       <c r="B17" s="5">
         <f t="shared" si="1"/>
-        <v>126075.00000000012</v>
+        <v>127499.99999999988</v>
       </c>
       <c r="C17" s="5">
         <f>IF(B17&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2801.6666666666665</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D17" s="5">
         <f>B17*Inställningar!$C$3/12</f>
-        <v>534.76812500000051</v>
+        <v>599.24999999999943</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" si="2"/>
-        <v>3336.434791666667</v>
+        <v>3432.583333333333</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -899,19 +898,19 @@
       </c>
       <c r="B18" s="5">
         <f t="shared" si="1"/>
-        <v>123273.33333333344</v>
+        <v>124666.66666666656</v>
       </c>
       <c r="C18" s="5">
         <f>IF(B18&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2801.6666666666665</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D18" s="5">
         <f>B18*Inställningar!$C$3/12</f>
-        <v>522.88438888888936</v>
+        <v>585.93333333333283</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" si="2"/>
-        <v>3324.5510555555556</v>
+        <v>3419.2666666666664</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -920,19 +919,19 @@
       </c>
       <c r="B19" s="5">
         <f t="shared" si="1"/>
-        <v>120471.66666666677</v>
+        <v>121833.33333333323</v>
       </c>
       <c r="C19" s="5">
         <f>IF(B19&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2801.6666666666665</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D19" s="5">
         <f>B19*Inställningar!$C$3/12</f>
-        <v>511.00065277777821</v>
+        <v>572.61666666666622</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" si="2"/>
-        <v>3312.6673194444447</v>
+        <v>3405.95</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -941,19 +940,19 @@
       </c>
       <c r="B20" s="5">
         <f t="shared" si="1"/>
-        <v>117670.0000000001</v>
+        <v>118999.9999999999</v>
       </c>
       <c r="C20" s="5">
         <f>IF(B20&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2801.6666666666665</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D20" s="5">
         <f>B20*Inställningar!$C$3/12</f>
-        <v>499.11691666666712</v>
+        <v>559.2999999999995</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" si="2"/>
-        <v>3300.7835833333338</v>
+        <v>3392.6333333333332</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -962,19 +961,19 @@
       </c>
       <c r="B21" s="5">
         <f t="shared" si="1"/>
-        <v>114868.33333333343</v>
+        <v>116166.66666666657</v>
       </c>
       <c r="C21" s="5">
         <f>IF(B21&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2801.6666666666665</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D21" s="5">
         <f>B21*Inställningar!$C$3/12</f>
-        <v>487.23318055555598</v>
+        <v>545.98333333333289</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" si="2"/>
-        <v>3288.8998472222224</v>
+        <v>3379.3166666666666</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -983,19 +982,19 @@
       </c>
       <c r="B22" s="5">
         <f t="shared" si="1"/>
-        <v>112066.66666666676</v>
+        <v>113333.33333333324</v>
       </c>
       <c r="C22" s="5">
         <f>IF(B22&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2801.6666666666665</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D22" s="5">
         <f>B22*Inställningar!$C$3/12</f>
-        <v>475.34944444444483</v>
+        <v>532.66666666666617</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" si="2"/>
-        <v>3277.0161111111115</v>
+        <v>3365.9999999999995</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1004,19 +1003,19 @@
       </c>
       <c r="B23" s="5">
         <f t="shared" si="1"/>
-        <v>109265.00000000009</v>
+        <v>110499.99999999991</v>
       </c>
       <c r="C23" s="5">
         <f>IF(B23&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2801.6666666666665</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D23" s="5">
         <f>B23*Inställningar!$C$3/12</f>
-        <v>463.46570833333368</v>
+        <v>519.34999999999957</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" si="2"/>
-        <v>3265.1323750000001</v>
+        <v>3352.6833333333329</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1025,19 +1024,19 @@
       </c>
       <c r="B24" s="5">
         <f t="shared" si="1"/>
-        <v>106463.33333333342</v>
+        <v>107666.66666666658</v>
       </c>
       <c r="C24" s="5">
         <f>IF(B24&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2801.6666666666665</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D24" s="5">
         <f>B24*Inställningar!$C$3/12</f>
-        <v>451.58197222222253</v>
+        <v>506.03333333333291</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" si="2"/>
-        <v>3253.2486388888892</v>
+        <v>3339.3666666666663</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1046,19 +1045,19 @@
       </c>
       <c r="B25" s="5">
         <f t="shared" si="1"/>
-        <v>103661.66666666674</v>
+        <v>104833.33333333326</v>
       </c>
       <c r="C25" s="5">
         <f>IF(B25&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2801.6666666666665</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D25" s="5">
         <f>B25*Inställningar!$C$3/12</f>
-        <v>439.6982361111115</v>
+        <v>492.7166666666663</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" si="2"/>
-        <v>3241.3649027777778</v>
+        <v>3326.0499999999997</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1067,19 +1066,19 @@
       </c>
       <c r="B26" s="5">
         <f t="shared" si="1"/>
-        <v>100860.00000000007</v>
+        <v>101999.99999999993</v>
       </c>
       <c r="C26" s="5">
         <f>IF(B26&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2801.6666666666665</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D26" s="5">
         <f>B26*Inställningar!$C$3/12</f>
-        <v>427.81450000000035</v>
+        <v>479.39999999999964</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" si="2"/>
-        <v>3229.4811666666669</v>
+        <v>3312.7333333333331</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1088,19 +1087,19 @@
       </c>
       <c r="B27" s="5">
         <f t="shared" si="1"/>
-        <v>98058.333333333401</v>
+        <v>99166.666666666599</v>
       </c>
       <c r="C27" s="5">
         <f>IF(B27&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2801.6666666666665</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D27" s="5">
         <f>B27*Inställningar!$C$3/12</f>
-        <v>415.9307638888892</v>
+        <v>466.08333333333303</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" si="2"/>
-        <v>3217.5974305555555</v>
+        <v>3299.4166666666665</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1109,19 +1108,19 @@
       </c>
       <c r="B28" s="5">
         <f t="shared" si="1"/>
-        <v>95256.66666666673</v>
+        <v>96333.33333333327</v>
       </c>
       <c r="C28" s="5">
         <f>IF(B28&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2801.6666666666665</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D28" s="5">
         <f>B28*Inställningar!$C$3/12</f>
-        <v>404.04702777777806</v>
+        <v>452.76666666666637</v>
       </c>
       <c r="E28" s="5">
         <f t="shared" si="2"/>
-        <v>3205.7136944444446</v>
+        <v>3286.1</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1130,19 +1129,19 @@
       </c>
       <c r="B29" s="5">
         <f t="shared" si="1"/>
-        <v>92455.000000000058</v>
+        <v>93499.999999999942</v>
       </c>
       <c r="C29" s="5">
         <f>IF(B29&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2801.6666666666665</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D29" s="5">
         <f>B29*Inställningar!$C$3/12</f>
-        <v>392.16329166666691</v>
+        <v>439.44999999999976</v>
       </c>
       <c r="E29" s="5">
         <f t="shared" si="2"/>
-        <v>3193.8299583333333</v>
+        <v>3272.7833333333333</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1151,19 +1150,19 @@
       </c>
       <c r="B30" s="5">
         <f t="shared" si="1"/>
-        <v>89653.333333333387</v>
+        <v>90666.666666666613</v>
       </c>
       <c r="C30" s="5">
         <f>IF(B30&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2801.6666666666665</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D30" s="5">
         <f>B30*Inställningar!$C$3/12</f>
-        <v>380.27955555555582</v>
+        <v>426.13333333333304</v>
       </c>
       <c r="E30" s="5">
         <f t="shared" si="2"/>
-        <v>3181.9462222222223</v>
+        <v>3259.4666666666667</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1172,19 +1171,19 @@
       </c>
       <c r="B31" s="5">
         <f t="shared" si="1"/>
-        <v>86851.666666666715</v>
+        <v>87833.333333333285</v>
       </c>
       <c r="C31" s="5">
         <f>IF(B31&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2801.6666666666665</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D31" s="5">
         <f>B31*Inställningar!$C$3/12</f>
-        <v>368.39581944444467</v>
+        <v>412.81666666666644</v>
       </c>
       <c r="E31" s="5">
         <f t="shared" si="2"/>
-        <v>3170.062486111111</v>
+        <v>3246.15</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1193,19 +1192,19 @@
       </c>
       <c r="B32" s="5">
         <f t="shared" si="1"/>
-        <v>84050.000000000044</v>
+        <v>84999.999999999956</v>
       </c>
       <c r="C32" s="5">
         <f>IF(B32&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2801.6666666666665</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D32" s="5">
         <f>B32*Inställningar!$C$3/12</f>
-        <v>356.51208333333352</v>
+        <v>399.49999999999977</v>
       </c>
       <c r="E32" s="5">
         <f t="shared" si="2"/>
-        <v>3158.17875</v>
+        <v>3232.833333333333</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1214,19 +1213,19 @@
       </c>
       <c r="B33" s="5">
         <f t="shared" si="1"/>
-        <v>81248.333333333372</v>
+        <v>82166.666666666628</v>
       </c>
       <c r="C33" s="5">
         <f>IF(B33&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2801.6666666666665</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D33" s="5">
         <f>B33*Inställningar!$C$3/12</f>
-        <v>344.62834722222237</v>
+        <v>386.18333333333317</v>
       </c>
       <c r="E33" s="5">
         <f t="shared" si="2"/>
-        <v>3146.2950138888891</v>
+        <v>3219.5166666666664</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1235,19 +1234,19 @@
       </c>
       <c r="B34" s="5">
         <f t="shared" si="1"/>
-        <v>78446.666666666701</v>
+        <v>79333.333333333299</v>
       </c>
       <c r="C34" s="5">
         <f>IF(B34&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2801.6666666666665</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D34" s="5">
         <f>B34*Inställningar!$C$3/12</f>
-        <v>332.74461111111128</v>
+        <v>372.8666666666665</v>
       </c>
       <c r="E34" s="5">
         <f t="shared" si="2"/>
-        <v>3134.4112777777777</v>
+        <v>3206.2</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1256,19 +1255,19 @@
       </c>
       <c r="B35" s="5">
         <f t="shared" si="1"/>
-        <v>75645.000000000029</v>
+        <v>76499.999999999971</v>
       </c>
       <c r="C35" s="5">
         <f>IF(B35&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2801.6666666666665</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D35" s="5">
         <f>B35*Inställningar!$C$3/12</f>
-        <v>320.86087500000014</v>
+        <v>359.5499999999999</v>
       </c>
       <c r="E35" s="5">
         <f t="shared" si="2"/>
-        <v>3122.5275416666668</v>
+        <v>3192.8833333333332</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1277,19 +1276,19 @@
       </c>
       <c r="B36" s="5">
         <f t="shared" si="1"/>
-        <v>72843.333333333358</v>
+        <v>73666.666666666642</v>
       </c>
       <c r="C36" s="5">
         <f>IF(B36&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2801.6666666666665</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D36" s="5">
         <f>B36*Inställningar!$C$3/12</f>
-        <v>308.97713888888899</v>
+        <v>346.23333333333318</v>
       </c>
       <c r="E36" s="5">
         <f t="shared" si="2"/>
-        <v>3110.6438055555554</v>
+        <v>3179.5666666666666</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1298,19 +1297,19 @@
       </c>
       <c r="B37" s="5">
         <f t="shared" si="1"/>
-        <v>70041.666666666686</v>
+        <v>70833.333333333314</v>
       </c>
       <c r="C37" s="5">
         <f>IF(B37&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2801.6666666666665</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D37" s="5">
         <f>B37*Inställningar!$C$3/12</f>
-        <v>297.09340277777784</v>
+        <v>332.91666666666657</v>
       </c>
       <c r="E37" s="5">
         <f t="shared" si="2"/>
-        <v>3098.7600694444445</v>
+        <v>3166.25</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1319,19 +1318,19 @@
       </c>
       <c r="B38" s="5">
         <f t="shared" si="1"/>
-        <v>67240.000000000015</v>
+        <v>67999.999999999985</v>
       </c>
       <c r="C38" s="5">
         <f>IF(B38&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2801.6666666666665</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D38" s="5">
         <f>B38*Inställningar!$C$3/12</f>
-        <v>285.20966666666675</v>
+        <v>319.59999999999991</v>
       </c>
       <c r="E38" s="5">
         <f t="shared" si="2"/>
-        <v>3086.8763333333332</v>
+        <v>3152.9333333333334</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1340,19 +1339,19 @@
       </c>
       <c r="B39" s="5">
         <f t="shared" si="1"/>
-        <v>64438.33333333335</v>
+        <v>65166.66666666665</v>
       </c>
       <c r="C39" s="5">
         <f>IF(B39&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2801.6666666666665</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D39" s="5">
         <f>B39*Inställningar!$C$3/12</f>
-        <v>273.32593055555566</v>
+        <v>306.28333333333325</v>
       </c>
       <c r="E39" s="5">
         <f t="shared" si="2"/>
-        <v>3074.9925972222222</v>
+        <v>3139.6166666666668</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1361,19 +1360,19 @@
       </c>
       <c r="B40" s="5">
         <f t="shared" si="1"/>
-        <v>61636.666666666686</v>
+        <v>62333.333333333314</v>
       </c>
       <c r="C40" s="5">
         <f>IF(B40&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2801.6666666666665</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D40" s="5">
         <f>B40*Inställningar!$C$3/12</f>
-        <v>261.44219444444451</v>
+        <v>292.96666666666658</v>
       </c>
       <c r="E40" s="5">
         <f t="shared" si="2"/>
-        <v>3063.1088611111109</v>
+        <v>3126.3</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1382,19 +1381,19 @@
       </c>
       <c r="B41" s="5">
         <f t="shared" si="1"/>
-        <v>58835.000000000022</v>
+        <v>59499.999999999978</v>
       </c>
       <c r="C41" s="5">
         <f>IF(B41&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2801.6666666666665</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D41" s="5">
         <f>B41*Inställningar!$C$3/12</f>
-        <v>249.55845833333342</v>
+        <v>279.64999999999992</v>
       </c>
       <c r="E41" s="5">
         <f t="shared" si="2"/>
-        <v>3051.2251249999999</v>
+        <v>3112.9833333333336</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1403,19 +1402,19 @@
       </c>
       <c r="B42" s="5">
         <f t="shared" si="1"/>
-        <v>56033.333333333358</v>
+        <v>56666.666666666642</v>
       </c>
       <c r="C42" s="5">
         <f>IF(B42&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2801.6666666666665</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D42" s="5">
         <f>B42*Inställningar!$C$3/12</f>
-        <v>237.67472222222236</v>
+        <v>266.3333333333332</v>
       </c>
       <c r="E42" s="5">
         <f t="shared" si="2"/>
-        <v>3039.341388888889</v>
+        <v>3099.6666666666665</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1424,19 +1423,19 @@
       </c>
       <c r="B43" s="5">
         <f t="shared" si="1"/>
-        <v>53231.666666666693</v>
+        <v>53833.333333333307</v>
       </c>
       <c r="C43" s="5">
         <f>IF(B43&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2801.6666666666665</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D43" s="5">
         <f>B43*Inställningar!$C$3/12</f>
-        <v>225.79098611111124</v>
+        <v>253.01666666666654</v>
       </c>
       <c r="E43" s="5">
         <f t="shared" si="2"/>
-        <v>3027.4576527777776</v>
+        <v>3086.35</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1445,19 +1444,19 @@
       </c>
       <c r="B44" s="5">
         <f t="shared" si="1"/>
-        <v>50430.000000000029</v>
+        <v>50999.999999999971</v>
       </c>
       <c r="C44" s="5">
         <f>IF(B44&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2801.6666666666665</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D44" s="5">
         <f>B44*Inställningar!$C$3/12</f>
-        <v>213.90725000000012</v>
+        <v>239.69999999999985</v>
       </c>
       <c r="E44" s="5">
         <f t="shared" si="2"/>
-        <v>3015.5739166666667</v>
+        <v>3073.0333333333333</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1466,19 +1465,19 @@
       </c>
       <c r="B45" s="5">
         <f t="shared" si="1"/>
-        <v>47628.333333333365</v>
+        <v>48166.666666666635</v>
       </c>
       <c r="C45" s="5">
         <f>IF(B45&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2801.6666666666665</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D45" s="5">
         <f>B45*Inställningar!$C$3/12</f>
-        <v>202.02351388888903</v>
+        <v>226.38333333333318</v>
       </c>
       <c r="E45" s="5">
         <f t="shared" si="2"/>
-        <v>3003.6901805555553</v>
+        <v>3059.7166666666667</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1487,19 +1486,19 @@
       </c>
       <c r="B46" s="5">
         <f t="shared" si="1"/>
-        <v>44826.666666666701</v>
+        <v>45333.333333333299</v>
       </c>
       <c r="C46" s="5">
         <f>IF(B46&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2801.6666666666665</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D46" s="5">
         <f>B46*Inställningar!$C$3/12</f>
-        <v>190.13977777777791</v>
+        <v>213.06666666666649</v>
       </c>
       <c r="E46" s="5">
         <f t="shared" si="2"/>
-        <v>2991.8064444444444</v>
+        <v>3046.4</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1508,19 +1507,19 @@
       </c>
       <c r="B47" s="5">
         <f t="shared" si="1"/>
-        <v>42025.000000000036</v>
+        <v>42499.999999999964</v>
       </c>
       <c r="C47" s="5">
         <f>IF(B47&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2801.6666666666665</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D47" s="5">
         <f>B47*Inställningar!$C$3/12</f>
-        <v>178.25604166666685</v>
+        <v>199.7499999999998</v>
       </c>
       <c r="E47" s="5">
         <f t="shared" si="2"/>
-        <v>2979.9227083333335</v>
+        <v>3033.0833333333335</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1529,19 +1528,19 @@
       </c>
       <c r="B48" s="5">
         <f t="shared" si="1"/>
-        <v>39223.333333333372</v>
+        <v>39666.666666666628</v>
       </c>
       <c r="C48" s="5">
         <f>IF(B48&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2801.6666666666665</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D48" s="5">
         <f>B48*Inställningar!$C$3/12</f>
-        <v>166.37230555555573</v>
+        <v>186.43333333333314</v>
       </c>
       <c r="E48" s="5">
         <f t="shared" si="2"/>
-        <v>2968.0389722222221</v>
+        <v>3019.7666666666664</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1550,19 +1549,19 @@
       </c>
       <c r="B49" s="5">
         <f t="shared" si="1"/>
-        <v>36421.666666666708</v>
+        <v>36833.333333333292</v>
       </c>
       <c r="C49" s="5">
         <f>IF(B49&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2801.6666666666665</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D49" s="5">
         <f>B49*Inställningar!$C$3/12</f>
-        <v>154.48856944444461</v>
+        <v>173.11666666666648</v>
       </c>
       <c r="E49" s="5">
         <f t="shared" si="2"/>
-        <v>2956.1552361111112</v>
+        <v>3006.45</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1571,19 +1570,19 @@
       </c>
       <c r="B50" s="5">
         <f t="shared" si="1"/>
-        <v>33620.000000000044</v>
+        <v>33999.999999999956</v>
       </c>
       <c r="C50" s="5">
         <f>IF(B50&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2801.6666666666665</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D50" s="5">
         <f>B50*Inställningar!$C$3/12</f>
-        <v>142.60483333333352</v>
+        <v>159.79999999999978</v>
       </c>
       <c r="E50" s="5">
         <f t="shared" si="2"/>
-        <v>2944.2714999999998</v>
+        <v>2993.1333333333332</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1592,19 +1591,19 @@
       </c>
       <c r="B51" s="5">
         <f t="shared" si="1"/>
-        <v>30818.333333333376</v>
+        <v>31166.666666666624</v>
       </c>
       <c r="C51" s="5">
         <f>IF(B51&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2801.6666666666665</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D51" s="5">
         <f>B51*Inställningar!$C$3/12</f>
-        <v>130.7210972222224</v>
+        <v>146.48333333333312</v>
       </c>
       <c r="E51" s="5">
         <f t="shared" si="2"/>
-        <v>2932.3877638888889</v>
+        <v>2979.8166666666666</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1613,19 +1612,19 @@
       </c>
       <c r="B52" s="5">
         <f t="shared" si="1"/>
-        <v>28016.666666666708</v>
+        <v>28333.333333333292</v>
       </c>
       <c r="C52" s="5">
         <f>IF(B52&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2801.6666666666665</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D52" s="5">
         <f>B52*Inställningar!$C$3/12</f>
-        <v>118.83736111111129</v>
+        <v>133.16666666666649</v>
       </c>
       <c r="E52" s="5">
         <f t="shared" si="2"/>
-        <v>2920.504027777778</v>
+        <v>2966.5</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1634,19 +1633,19 @@
       </c>
       <c r="B53" s="5">
         <f t="shared" si="1"/>
-        <v>25215.00000000004</v>
+        <v>25499.99999999996</v>
       </c>
       <c r="C53" s="5">
         <f>IF(B53&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2801.6666666666665</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D53" s="5">
         <f>B53*Inställningar!$C$3/12</f>
-        <v>106.95362500000017</v>
+        <v>119.84999999999981</v>
       </c>
       <c r="E53" s="5">
         <f t="shared" si="2"/>
-        <v>2908.6202916666666</v>
+        <v>2953.1833333333334</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1655,19 +1654,19 @@
       </c>
       <c r="B54" s="5">
         <f t="shared" si="1"/>
-        <v>22413.333333333372</v>
+        <v>22666.666666666628</v>
       </c>
       <c r="C54" s="5">
         <f>IF(B54&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2801.6666666666665</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D54" s="5">
         <f>B54*Inställningar!$C$3/12</f>
-        <v>95.069888888889054</v>
+        <v>106.53333333333315</v>
       </c>
       <c r="E54" s="5">
         <f t="shared" si="2"/>
-        <v>2896.7365555555557</v>
+        <v>2939.8666666666668</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1676,19 +1675,19 @@
       </c>
       <c r="B55" s="5">
         <f t="shared" si="1"/>
-        <v>19611.666666666704</v>
+        <v>19833.333333333296</v>
       </c>
       <c r="C55" s="5">
         <f>IF(B55&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2801.6666666666665</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D55" s="5">
         <f>B55*Inställningar!$C$3/12</f>
-        <v>83.186152777777934</v>
+        <v>93.216666666666484</v>
       </c>
       <c r="E55" s="5">
         <f t="shared" si="2"/>
-        <v>2884.8528194444443</v>
+        <v>2926.55</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1697,19 +1696,19 @@
       </c>
       <c r="B56" s="5">
         <f t="shared" si="1"/>
-        <v>16810.000000000036</v>
+        <v>16999.999999999964</v>
       </c>
       <c r="C56" s="5">
         <f>IF(B56&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2801.6666666666665</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D56" s="5">
         <f>B56*Inställningar!$C$3/12</f>
-        <v>71.302416666666815</v>
+        <v>79.899999999999821</v>
       </c>
       <c r="E56" s="5">
         <f t="shared" si="2"/>
-        <v>2872.9690833333334</v>
+        <v>2913.2333333333331</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1718,19 +1717,19 @@
       </c>
       <c r="B57" s="5">
         <f t="shared" si="1"/>
-        <v>14008.33333333337</v>
+        <v>14166.66666666663</v>
       </c>
       <c r="C57" s="5">
         <f>IF(B57&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2801.6666666666665</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D57" s="5">
         <f>B57*Inställningar!$C$3/12</f>
-        <v>59.41868055555571</v>
+        <v>66.583333333333158</v>
       </c>
       <c r="E57" s="5">
         <f t="shared" si="2"/>
-        <v>2861.085347222222</v>
+        <v>2899.9166666666665</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1739,19 +1738,19 @@
       </c>
       <c r="B58" s="5">
         <f t="shared" si="1"/>
-        <v>11206.666666666704</v>
+        <v>11333.333333333296</v>
       </c>
       <c r="C58" s="5">
         <f>IF(B58&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2801.6666666666665</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D58" s="5">
         <f>B58*Inställningar!$C$3/12</f>
-        <v>47.534944444444598</v>
+        <v>53.266666666666488</v>
       </c>
       <c r="E58" s="5">
         <f t="shared" si="2"/>
-        <v>2849.2016111111111</v>
+        <v>2886.6</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1760,19 +1759,19 @@
       </c>
       <c r="B59" s="5">
         <f t="shared" si="1"/>
-        <v>8405.0000000000382</v>
+        <v>8499.9999999999618</v>
       </c>
       <c r="C59" s="5">
         <f>IF(B59&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2801.6666666666665</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D59" s="5">
         <f>B59*Inställningar!$C$3/12</f>
-        <v>35.651208333333493</v>
+        <v>39.949999999999818</v>
       </c>
       <c r="E59" s="5">
         <f t="shared" si="2"/>
-        <v>2837.3178750000002</v>
+        <v>2873.2833333333333</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1781,19 +1780,19 @@
       </c>
       <c r="B60" s="5">
         <f t="shared" si="1"/>
-        <v>5603.3333333333721</v>
+        <v>5666.6666666666279</v>
       </c>
       <c r="C60" s="5">
         <f>IF(B60&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2801.6666666666665</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D60" s="5">
         <f>B60*Inställningar!$C$3/12</f>
-        <v>23.767472222222384</v>
+        <v>26.633333333333152</v>
       </c>
       <c r="E60" s="5">
         <f t="shared" si="2"/>
-        <v>2825.4341388888888</v>
+        <v>2859.9666666666667</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1802,19 +1801,19 @@
       </c>
       <c r="B61" s="5">
         <f t="shared" si="1"/>
-        <v>2801.6666666667056</v>
+        <v>2833.3333333332944</v>
       </c>
       <c r="C61" s="5">
         <f>IF(B61&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2801.6666666666665</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="D61" s="5">
         <f>B61*Inställningar!$C$3/12</f>
-        <v>11.883736111111276</v>
+        <v>13.316666666666483</v>
       </c>
       <c r="E61" s="5">
         <f t="shared" si="2"/>
-        <v>2813.5504027777779</v>
+        <v>2846.65</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1823,19 +1822,19 @@
       </c>
       <c r="B62" s="5">
         <f t="shared" si="1"/>
-        <v>3.9108272176235914E-11</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C62" s="5">
         <f>IF(B62&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
-        <v>2801.6666666666665</v>
+        <v>0</v>
       </c>
       <c r="D62" s="5">
         <f>B62*Inställningar!$C$3/12</f>
-        <v>1.6588425448086732E-13</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E62" s="5">
         <f t="shared" si="2"/>
-        <v>2801.6666666666665</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1844,7 +1843,7 @@
       </c>
       <c r="B63" s="5">
         <f t="shared" si="1"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C63" s="5">
         <f>IF(B63&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -1852,11 +1851,11 @@
       </c>
       <c r="D63" s="5">
         <f>B63*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E63" s="5">
         <f t="shared" si="2"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1865,7 +1864,7 @@
       </c>
       <c r="B64" s="5">
         <f t="shared" si="1"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C64" s="5">
         <f>IF(B64&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -1873,11 +1872,11 @@
       </c>
       <c r="D64" s="5">
         <f>B64*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E64" s="5">
         <f t="shared" si="2"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1886,7 +1885,7 @@
       </c>
       <c r="B65" s="5">
         <f t="shared" si="1"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C65" s="5">
         <f>IF(B65&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -1894,11 +1893,11 @@
       </c>
       <c r="D65" s="5">
         <f>B65*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E65" s="5">
         <f t="shared" si="2"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1907,7 +1906,7 @@
       </c>
       <c r="B66" s="5">
         <f t="shared" si="1"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C66" s="5">
         <f>IF(B66&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -1915,11 +1914,11 @@
       </c>
       <c r="D66" s="5">
         <f>B66*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E66" s="5">
         <f t="shared" si="2"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1928,7 +1927,7 @@
       </c>
       <c r="B67" s="5">
         <f t="shared" si="1"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C67" s="5">
         <f>IF(B67&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -1936,11 +1935,11 @@
       </c>
       <c r="D67" s="5">
         <f>B67*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E67" s="5">
         <f t="shared" si="2"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1949,7 +1948,7 @@
       </c>
       <c r="B68" s="5">
         <f t="shared" ref="B68:B131" si="3">B67-C67</f>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C68" s="5">
         <f>IF(B68&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -1957,11 +1956,11 @@
       </c>
       <c r="D68" s="5">
         <f>B68*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E68" s="5">
         <f t="shared" ref="E68:E131" si="4">SUM(C68:D68)</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1970,7 +1969,7 @@
       </c>
       <c r="B69" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C69" s="5">
         <f>IF(B69&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -1978,11 +1977,11 @@
       </c>
       <c r="D69" s="5">
         <f>B69*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E69" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1991,7 +1990,7 @@
       </c>
       <c r="B70" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C70" s="5">
         <f>IF(B70&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -1999,11 +1998,11 @@
       </c>
       <c r="D70" s="5">
         <f>B70*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E70" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2012,7 +2011,7 @@
       </c>
       <c r="B71" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C71" s="5">
         <f>IF(B71&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2020,11 +2019,11 @@
       </c>
       <c r="D71" s="5">
         <f>B71*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E71" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2033,7 +2032,7 @@
       </c>
       <c r="B72" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C72" s="5">
         <f>IF(B72&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2041,11 +2040,11 @@
       </c>
       <c r="D72" s="5">
         <f>B72*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E72" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2054,7 +2053,7 @@
       </c>
       <c r="B73" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C73" s="5">
         <f>IF(B73&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2062,11 +2061,11 @@
       </c>
       <c r="D73" s="5">
         <f>B73*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E73" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2075,7 +2074,7 @@
       </c>
       <c r="B74" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C74" s="5">
         <f>IF(B74&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2083,11 +2082,11 @@
       </c>
       <c r="D74" s="5">
         <f>B74*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E74" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2096,7 +2095,7 @@
       </c>
       <c r="B75" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C75" s="5">
         <f>IF(B75&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2104,11 +2103,11 @@
       </c>
       <c r="D75" s="5">
         <f>B75*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E75" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2117,7 +2116,7 @@
       </c>
       <c r="B76" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C76" s="5">
         <f>IF(B76&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2125,11 +2124,11 @@
       </c>
       <c r="D76" s="5">
         <f>B76*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E76" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2138,7 +2137,7 @@
       </c>
       <c r="B77" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C77" s="5">
         <f>IF(B77&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2146,11 +2145,11 @@
       </c>
       <c r="D77" s="5">
         <f>B77*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E77" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2159,7 +2158,7 @@
       </c>
       <c r="B78" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C78" s="5">
         <f>IF(B78&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2167,11 +2166,11 @@
       </c>
       <c r="D78" s="5">
         <f>B78*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E78" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2180,7 +2179,7 @@
       </c>
       <c r="B79" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C79" s="5">
         <f>IF(B79&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2188,11 +2187,11 @@
       </c>
       <c r="D79" s="5">
         <f>B79*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E79" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2201,7 +2200,7 @@
       </c>
       <c r="B80" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C80" s="5">
         <f>IF(B80&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2209,11 +2208,11 @@
       </c>
       <c r="D80" s="5">
         <f>B80*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E80" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2222,7 +2221,7 @@
       </c>
       <c r="B81" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C81" s="5">
         <f>IF(B81&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2230,11 +2229,11 @@
       </c>
       <c r="D81" s="5">
         <f>B81*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E81" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2243,7 +2242,7 @@
       </c>
       <c r="B82" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C82" s="5">
         <f>IF(B82&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2251,11 +2250,11 @@
       </c>
       <c r="D82" s="5">
         <f>B82*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E82" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2264,7 +2263,7 @@
       </c>
       <c r="B83" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C83" s="5">
         <f>IF(B83&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2272,11 +2271,11 @@
       </c>
       <c r="D83" s="5">
         <f>B83*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E83" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2285,7 +2284,7 @@
       </c>
       <c r="B84" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C84" s="5">
         <f>IF(B84&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2293,11 +2292,11 @@
       </c>
       <c r="D84" s="5">
         <f>B84*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E84" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2306,7 +2305,7 @@
       </c>
       <c r="B85" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C85" s="5">
         <f>IF(B85&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2314,11 +2313,11 @@
       </c>
       <c r="D85" s="5">
         <f>B85*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E85" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2327,7 +2326,7 @@
       </c>
       <c r="B86" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C86" s="5">
         <f>IF(B86&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2335,11 +2334,11 @@
       </c>
       <c r="D86" s="5">
         <f>B86*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E86" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2348,7 +2347,7 @@
       </c>
       <c r="B87" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C87" s="5">
         <f>IF(B87&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2356,11 +2355,11 @@
       </c>
       <c r="D87" s="5">
         <f>B87*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E87" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2369,7 +2368,7 @@
       </c>
       <c r="B88" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C88" s="5">
         <f>IF(B88&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2377,11 +2376,11 @@
       </c>
       <c r="D88" s="5">
         <f>B88*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E88" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2390,7 +2389,7 @@
       </c>
       <c r="B89" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C89" s="5">
         <f>IF(B89&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2398,11 +2397,11 @@
       </c>
       <c r="D89" s="5">
         <f>B89*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E89" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2411,7 +2410,7 @@
       </c>
       <c r="B90" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C90" s="5">
         <f>IF(B90&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2419,11 +2418,11 @@
       </c>
       <c r="D90" s="5">
         <f>B90*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E90" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2432,7 +2431,7 @@
       </c>
       <c r="B91" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C91" s="5">
         <f>IF(B91&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2440,11 +2439,11 @@
       </c>
       <c r="D91" s="5">
         <f>B91*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E91" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2453,7 +2452,7 @@
       </c>
       <c r="B92" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C92" s="5">
         <f>IF(B92&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2461,11 +2460,11 @@
       </c>
       <c r="D92" s="5">
         <f>B92*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E92" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2474,7 +2473,7 @@
       </c>
       <c r="B93" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C93" s="5">
         <f>IF(B93&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2482,11 +2481,11 @@
       </c>
       <c r="D93" s="5">
         <f>B93*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E93" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2495,7 +2494,7 @@
       </c>
       <c r="B94" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C94" s="5">
         <f>IF(B94&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2503,11 +2502,11 @@
       </c>
       <c r="D94" s="5">
         <f>B94*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E94" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2516,7 +2515,7 @@
       </c>
       <c r="B95" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C95" s="5">
         <f>IF(B95&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2524,11 +2523,11 @@
       </c>
       <c r="D95" s="5">
         <f>B95*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E95" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2537,7 +2536,7 @@
       </c>
       <c r="B96" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C96" s="5">
         <f>IF(B96&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2545,11 +2544,11 @@
       </c>
       <c r="D96" s="5">
         <f>B96*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E96" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2558,7 +2557,7 @@
       </c>
       <c r="B97" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C97" s="5">
         <f>IF(B97&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2566,11 +2565,11 @@
       </c>
       <c r="D97" s="5">
         <f>B97*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E97" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2579,7 +2578,7 @@
       </c>
       <c r="B98" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C98" s="5">
         <f>IF(B98&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2587,11 +2586,11 @@
       </c>
       <c r="D98" s="5">
         <f>B98*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E98" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2600,7 +2599,7 @@
       </c>
       <c r="B99" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C99" s="5">
         <f>IF(B99&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2608,11 +2607,11 @@
       </c>
       <c r="D99" s="5">
         <f>B99*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E99" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2621,7 +2620,7 @@
       </c>
       <c r="B100" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C100" s="5">
         <f>IF(B100&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2629,11 +2628,11 @@
       </c>
       <c r="D100" s="5">
         <f>B100*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E100" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2642,7 +2641,7 @@
       </c>
       <c r="B101" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C101" s="5">
         <f>IF(B101&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2650,11 +2649,11 @@
       </c>
       <c r="D101" s="5">
         <f>B101*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E101" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2663,7 +2662,7 @@
       </c>
       <c r="B102" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C102" s="5">
         <f>IF(B102&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2671,11 +2670,11 @@
       </c>
       <c r="D102" s="5">
         <f>B102*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E102" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2684,7 +2683,7 @@
       </c>
       <c r="B103" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C103" s="5">
         <f>IF(B103&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2692,11 +2691,11 @@
       </c>
       <c r="D103" s="5">
         <f>B103*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E103" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2705,7 +2704,7 @@
       </c>
       <c r="B104" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C104" s="5">
         <f>IF(B104&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2713,11 +2712,11 @@
       </c>
       <c r="D104" s="5">
         <f>B104*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E104" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2726,7 +2725,7 @@
       </c>
       <c r="B105" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C105" s="5">
         <f>IF(B105&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2734,11 +2733,11 @@
       </c>
       <c r="D105" s="5">
         <f>B105*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E105" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2747,7 +2746,7 @@
       </c>
       <c r="B106" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C106" s="5">
         <f>IF(B106&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2755,11 +2754,11 @@
       </c>
       <c r="D106" s="5">
         <f>B106*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E106" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2768,7 +2767,7 @@
       </c>
       <c r="B107" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C107" s="5">
         <f>IF(B107&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2776,11 +2775,11 @@
       </c>
       <c r="D107" s="5">
         <f>B107*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E107" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2789,7 +2788,7 @@
       </c>
       <c r="B108" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C108" s="5">
         <f>IF(B108&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2797,11 +2796,11 @@
       </c>
       <c r="D108" s="5">
         <f>B108*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E108" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2810,7 +2809,7 @@
       </c>
       <c r="B109" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C109" s="5">
         <f>IF(B109&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2818,11 +2817,11 @@
       </c>
       <c r="D109" s="5">
         <f>B109*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E109" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2831,7 +2830,7 @@
       </c>
       <c r="B110" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C110" s="5">
         <f>IF(B110&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2839,11 +2838,11 @@
       </c>
       <c r="D110" s="5">
         <f>B110*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E110" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2852,7 +2851,7 @@
       </c>
       <c r="B111" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C111" s="5">
         <f>IF(B111&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2860,11 +2859,11 @@
       </c>
       <c r="D111" s="5">
         <f>B111*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E111" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2873,7 +2872,7 @@
       </c>
       <c r="B112" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C112" s="5">
         <f>IF(B112&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2881,11 +2880,11 @@
       </c>
       <c r="D112" s="5">
         <f>B112*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E112" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2894,7 +2893,7 @@
       </c>
       <c r="B113" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C113" s="5">
         <f>IF(B113&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2902,11 +2901,11 @@
       </c>
       <c r="D113" s="5">
         <f>B113*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E113" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2915,7 +2914,7 @@
       </c>
       <c r="B114" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C114" s="5">
         <f>IF(B114&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2923,11 +2922,11 @@
       </c>
       <c r="D114" s="5">
         <f>B114*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E114" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2936,7 +2935,7 @@
       </c>
       <c r="B115" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C115" s="5">
         <f>IF(B115&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2944,11 +2943,11 @@
       </c>
       <c r="D115" s="5">
         <f>B115*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E115" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2957,7 +2956,7 @@
       </c>
       <c r="B116" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C116" s="5">
         <f>IF(B116&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2965,11 +2964,11 @@
       </c>
       <c r="D116" s="5">
         <f>B116*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E116" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2978,7 +2977,7 @@
       </c>
       <c r="B117" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C117" s="5">
         <f>IF(B117&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -2986,11 +2985,11 @@
       </c>
       <c r="D117" s="5">
         <f>B117*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E117" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2999,7 +2998,7 @@
       </c>
       <c r="B118" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C118" s="5">
         <f>IF(B118&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3007,11 +3006,11 @@
       </c>
       <c r="D118" s="5">
         <f>B118*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E118" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3020,7 +3019,7 @@
       </c>
       <c r="B119" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C119" s="5">
         <f>IF(B119&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3028,11 +3027,11 @@
       </c>
       <c r="D119" s="5">
         <f>B119*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E119" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3041,7 +3040,7 @@
       </c>
       <c r="B120" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C120" s="5">
         <f>IF(B120&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3049,11 +3048,11 @@
       </c>
       <c r="D120" s="5">
         <f>B120*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E120" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3062,7 +3061,7 @@
       </c>
       <c r="B121" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C121" s="5">
         <f>IF(B121&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3070,11 +3069,11 @@
       </c>
       <c r="D121" s="5">
         <f>B121*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E121" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3083,7 +3082,7 @@
       </c>
       <c r="B122" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C122" s="5">
         <f>IF(B122&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3091,11 +3090,11 @@
       </c>
       <c r="D122" s="5">
         <f>B122*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E122" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3104,7 +3103,7 @@
       </c>
       <c r="B123" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C123" s="5">
         <f>IF(B123&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3112,11 +3111,11 @@
       </c>
       <c r="D123" s="5">
         <f>B123*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E123" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3125,7 +3124,7 @@
       </c>
       <c r="B124" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C124" s="5">
         <f>IF(B124&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3133,11 +3132,11 @@
       </c>
       <c r="D124" s="5">
         <f>B124*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E124" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3146,7 +3145,7 @@
       </c>
       <c r="B125" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C125" s="5">
         <f>IF(B125&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3154,11 +3153,11 @@
       </c>
       <c r="D125" s="5">
         <f>B125*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E125" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3167,7 +3166,7 @@
       </c>
       <c r="B126" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C126" s="5">
         <f>IF(B126&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3175,11 +3174,11 @@
       </c>
       <c r="D126" s="5">
         <f>B126*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E126" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3188,7 +3187,7 @@
       </c>
       <c r="B127" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C127" s="5">
         <f>IF(B127&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3196,11 +3195,11 @@
       </c>
       <c r="D127" s="5">
         <f>B127*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E127" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3209,7 +3208,7 @@
       </c>
       <c r="B128" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C128" s="5">
         <f>IF(B128&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3217,11 +3216,11 @@
       </c>
       <c r="D128" s="5">
         <f>B128*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E128" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3230,7 +3229,7 @@
       </c>
       <c r="B129" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C129" s="5">
         <f>IF(B129&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3238,11 +3237,11 @@
       </c>
       <c r="D129" s="5">
         <f>B129*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E129" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3251,7 +3250,7 @@
       </c>
       <c r="B130" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C130" s="5">
         <f>IF(B130&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3259,11 +3258,11 @@
       </c>
       <c r="D130" s="5">
         <f>B130*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E130" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3272,7 +3271,7 @@
       </c>
       <c r="B131" s="5">
         <f t="shared" si="3"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C131" s="5">
         <f>IF(B131&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3280,11 +3279,11 @@
       </c>
       <c r="D131" s="5">
         <f>B131*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E131" s="5">
         <f t="shared" si="4"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3293,7 +3292,7 @@
       </c>
       <c r="B132" s="5">
         <f t="shared" ref="B132:B167" si="5">B131-C131</f>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C132" s="5">
         <f>IF(B132&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3301,11 +3300,11 @@
       </c>
       <c r="D132" s="5">
         <f>B132*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E132" s="5">
         <f t="shared" ref="E132:E167" si="6">SUM(C132:D132)</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3314,7 +3313,7 @@
       </c>
       <c r="B133" s="5">
         <f t="shared" si="5"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C133" s="5">
         <f>IF(B133&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3322,11 +3321,11 @@
       </c>
       <c r="D133" s="5">
         <f>B133*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E133" s="5">
         <f t="shared" si="6"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3335,7 +3334,7 @@
       </c>
       <c r="B134" s="5">
         <f t="shared" si="5"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C134" s="5">
         <f>IF(B134&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3343,11 +3342,11 @@
       </c>
       <c r="D134" s="5">
         <f>B134*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E134" s="5">
         <f t="shared" si="6"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3356,7 +3355,7 @@
       </c>
       <c r="B135" s="5">
         <f t="shared" si="5"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C135" s="5">
         <f>IF(B135&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3364,11 +3363,11 @@
       </c>
       <c r="D135" s="5">
         <f>B135*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E135" s="5">
         <f t="shared" si="6"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3377,7 +3376,7 @@
       </c>
       <c r="B136" s="5">
         <f t="shared" si="5"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C136" s="5">
         <f>IF(B136&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3385,11 +3384,11 @@
       </c>
       <c r="D136" s="5">
         <f>B136*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E136" s="5">
         <f t="shared" si="6"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3398,7 +3397,7 @@
       </c>
       <c r="B137" s="5">
         <f t="shared" si="5"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C137" s="5">
         <f>IF(B137&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3406,11 +3405,11 @@
       </c>
       <c r="D137" s="5">
         <f>B137*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E137" s="5">
         <f t="shared" si="6"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3419,7 +3418,7 @@
       </c>
       <c r="B138" s="5">
         <f t="shared" si="5"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C138" s="5">
         <f>IF(B138&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3427,11 +3426,11 @@
       </c>
       <c r="D138" s="5">
         <f>B138*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E138" s="5">
         <f t="shared" si="6"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3440,7 +3439,7 @@
       </c>
       <c r="B139" s="5">
         <f t="shared" si="5"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C139" s="5">
         <f>IF(B139&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3448,11 +3447,11 @@
       </c>
       <c r="D139" s="5">
         <f>B139*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E139" s="5">
         <f t="shared" si="6"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3461,7 +3460,7 @@
       </c>
       <c r="B140" s="5">
         <f t="shared" si="5"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C140" s="5">
         <f>IF(B140&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3469,11 +3468,11 @@
       </c>
       <c r="D140" s="5">
         <f>B140*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E140" s="5">
         <f t="shared" si="6"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3482,7 +3481,7 @@
       </c>
       <c r="B141" s="5">
         <f t="shared" si="5"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C141" s="5">
         <f>IF(B141&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3490,11 +3489,11 @@
       </c>
       <c r="D141" s="5">
         <f>B141*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E141" s="5">
         <f t="shared" si="6"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3503,7 +3502,7 @@
       </c>
       <c r="B142" s="5">
         <f t="shared" si="5"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C142" s="5">
         <f>IF(B142&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3511,11 +3510,11 @@
       </c>
       <c r="D142" s="5">
         <f>B142*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E142" s="5">
         <f t="shared" si="6"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3524,7 +3523,7 @@
       </c>
       <c r="B143" s="5">
         <f t="shared" si="5"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C143" s="5">
         <f>IF(B143&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3532,11 +3531,11 @@
       </c>
       <c r="D143" s="5">
         <f>B143*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E143" s="5">
         <f t="shared" si="6"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3545,7 +3544,7 @@
       </c>
       <c r="B144" s="5">
         <f t="shared" si="5"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C144" s="5">
         <f>IF(B144&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3553,11 +3552,11 @@
       </c>
       <c r="D144" s="5">
         <f>B144*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E144" s="5">
         <f t="shared" si="6"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3566,7 +3565,7 @@
       </c>
       <c r="B145" s="5">
         <f t="shared" si="5"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C145" s="5">
         <f>IF(B145&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3574,11 +3573,11 @@
       </c>
       <c r="D145" s="5">
         <f>B145*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E145" s="5">
         <f t="shared" si="6"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3587,7 +3586,7 @@
       </c>
       <c r="B146" s="5">
         <f t="shared" si="5"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C146" s="5">
         <f>IF(B146&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3595,11 +3594,11 @@
       </c>
       <c r="D146" s="5">
         <f>B146*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E146" s="5">
         <f t="shared" si="6"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3608,7 +3607,7 @@
       </c>
       <c r="B147" s="5">
         <f t="shared" si="5"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C147" s="5">
         <f>IF(B147&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3616,11 +3615,11 @@
       </c>
       <c r="D147" s="5">
         <f>B147*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E147" s="5">
         <f t="shared" si="6"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3629,7 +3628,7 @@
       </c>
       <c r="B148" s="5">
         <f t="shared" si="5"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C148" s="5">
         <f>IF(B148&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3637,11 +3636,11 @@
       </c>
       <c r="D148" s="5">
         <f>B148*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E148" s="5">
         <f t="shared" si="6"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3650,7 +3649,7 @@
       </c>
       <c r="B149" s="5">
         <f t="shared" si="5"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C149" s="5">
         <f>IF(B149&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3658,11 +3657,11 @@
       </c>
       <c r="D149" s="5">
         <f>B149*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E149" s="5">
         <f t="shared" si="6"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3671,7 +3670,7 @@
       </c>
       <c r="B150" s="5">
         <f t="shared" si="5"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C150" s="5">
         <f>IF(B150&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3679,11 +3678,11 @@
       </c>
       <c r="D150" s="5">
         <f>B150*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E150" s="5">
         <f t="shared" si="6"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3692,7 +3691,7 @@
       </c>
       <c r="B151" s="5">
         <f t="shared" si="5"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C151" s="5">
         <f>IF(B151&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3700,11 +3699,11 @@
       </c>
       <c r="D151" s="5">
         <f>B151*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E151" s="5">
         <f t="shared" si="6"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3713,7 +3712,7 @@
       </c>
       <c r="B152" s="5">
         <f t="shared" si="5"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C152" s="5">
         <f>IF(B152&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3721,11 +3720,11 @@
       </c>
       <c r="D152" s="5">
         <f>B152*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E152" s="5">
         <f t="shared" si="6"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3734,7 +3733,7 @@
       </c>
       <c r="B153" s="5">
         <f t="shared" si="5"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C153" s="5">
         <f>IF(B153&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3742,11 +3741,11 @@
       </c>
       <c r="D153" s="5">
         <f>B153*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E153" s="5">
         <f t="shared" si="6"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3755,7 +3754,7 @@
       </c>
       <c r="B154" s="5">
         <f t="shared" si="5"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C154" s="5">
         <f>IF(B154&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3763,11 +3762,11 @@
       </c>
       <c r="D154" s="5">
         <f>B154*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E154" s="5">
         <f t="shared" si="6"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3776,7 +3775,7 @@
       </c>
       <c r="B155" s="5">
         <f t="shared" si="5"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C155" s="5">
         <f>IF(B155&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3784,11 +3783,11 @@
       </c>
       <c r="D155" s="5">
         <f>B155*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E155" s="5">
         <f t="shared" si="6"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3797,7 +3796,7 @@
       </c>
       <c r="B156" s="5">
         <f t="shared" si="5"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C156" s="5">
         <f>IF(B156&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3805,11 +3804,11 @@
       </c>
       <c r="D156" s="5">
         <f>B156*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E156" s="5">
         <f t="shared" si="6"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3818,7 +3817,7 @@
       </c>
       <c r="B157" s="5">
         <f t="shared" si="5"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C157" s="5">
         <f>IF(B157&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3826,11 +3825,11 @@
       </c>
       <c r="D157" s="5">
         <f>B157*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E157" s="5">
         <f t="shared" si="6"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3839,7 +3838,7 @@
       </c>
       <c r="B158" s="5">
         <f t="shared" si="5"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C158" s="5">
         <f>IF(B158&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3847,11 +3846,11 @@
       </c>
       <c r="D158" s="5">
         <f>B158*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E158" s="5">
         <f t="shared" si="6"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3860,7 +3859,7 @@
       </c>
       <c r="B159" s="5">
         <f t="shared" si="5"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C159" s="5">
         <f>IF(B159&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3868,11 +3867,11 @@
       </c>
       <c r="D159" s="5">
         <f>B159*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E159" s="5">
         <f t="shared" si="6"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3881,7 +3880,7 @@
       </c>
       <c r="B160" s="5">
         <f t="shared" si="5"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C160" s="5">
         <f>IF(B160&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3889,11 +3888,11 @@
       </c>
       <c r="D160" s="5">
         <f>B160*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E160" s="5">
         <f t="shared" si="6"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3902,7 +3901,7 @@
       </c>
       <c r="B161" s="5">
         <f t="shared" si="5"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C161" s="5">
         <f>IF(B161&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3910,11 +3909,11 @@
       </c>
       <c r="D161" s="5">
         <f>B161*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E161" s="5">
         <f t="shared" si="6"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3923,7 +3922,7 @@
       </c>
       <c r="B162" s="5">
         <f t="shared" si="5"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C162" s="5">
         <f>IF(B162&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3931,11 +3930,11 @@
       </c>
       <c r="D162" s="5">
         <f>B162*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E162" s="5">
         <f t="shared" si="6"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3944,7 +3943,7 @@
       </c>
       <c r="B163" s="5">
         <f t="shared" si="5"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C163" s="5">
         <f>IF(B163&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3952,11 +3951,11 @@
       </c>
       <c r="D163" s="5">
         <f>B163*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E163" s="5">
         <f t="shared" si="6"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3965,7 +3964,7 @@
       </c>
       <c r="B164" s="5">
         <f t="shared" si="5"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C164" s="5">
         <f>IF(B164&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3973,11 +3972,11 @@
       </c>
       <c r="D164" s="5">
         <f>B164*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E164" s="5">
         <f t="shared" si="6"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3986,7 +3985,7 @@
       </c>
       <c r="B165" s="5">
         <f t="shared" si="5"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C165" s="5">
         <f>IF(B165&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -3994,11 +3993,11 @@
       </c>
       <c r="D165" s="5">
         <f>B165*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E165" s="5">
         <f t="shared" si="6"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4007,7 +4006,7 @@
       </c>
       <c r="B166" s="5">
         <f t="shared" si="5"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C166" s="5">
         <f>IF(B166&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -4015,11 +4014,11 @@
       </c>
       <c r="D166" s="5">
         <f>B166*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E166" s="5">
         <f t="shared" si="6"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4028,7 +4027,7 @@
       </c>
       <c r="B167" s="5">
         <f t="shared" si="5"/>
-        <v>-2801.6666666666274</v>
+        <v>-3.9108272176235914E-11</v>
       </c>
       <c r="C167" s="5">
         <f>IF(B167&gt;0,Inställningar!$C$2/Inställningar!$C$5,0)</f>
@@ -4036,11 +4035,11 @@
       </c>
       <c r="D167" s="5">
         <f>B167*Inställningar!$C$3/12</f>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
       <c r="E167" s="5">
         <f t="shared" si="6"/>
-        <v>-11.883736111110943</v>
+        <v>-1.8380887922830877E-13</v>
       </c>
     </row>
   </sheetData>
@@ -4052,13 +4051,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="8.88671875" style="8"/>
+    <col min="3" max="3" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4246,14 +4245,14 @@
       </c>
       <c r="B21">
         <f>Månadsöversikt!E2</f>
-        <v>3514.6908333333331</v>
+        <v>3632.3333333333335</v>
       </c>
       <c r="C21" s="8">
         <v>1</v>
       </c>
       <c r="D21">
         <f>B21*C21</f>
-        <v>3514.6908333333331</v>
+        <v>3632.3333333333335</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4262,7 +4261,7 @@
       </c>
       <c r="D23" s="6">
         <f>D19-D21</f>
-        <v>7091.3091666666705</v>
+        <v>6973.6666666666697</v>
       </c>
     </row>
   </sheetData>
